--- a/variable_drop_impact.xlsx
+++ b/variable_drop_impact.xlsx
@@ -52,19 +52,19 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
+    <t>None dropped</t>
+  </si>
+  <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
     <t>Fine Aggregate</t>
-  </si>
-  <si>
-    <t>Coarse Aggregate</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
-  </si>
-  <si>
-    <t>None dropped</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -483,81 +483,78 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>4.040375228485741</v>
+        <v>4.076384607643867</v>
       </c>
       <c r="E2">
-        <v>0.9287949521965668</v>
+        <v>0.9275200827515349</v>
       </c>
       <c r="F2">
-        <v>2.94808798379838</v>
+        <v>3.002624959402118</v>
       </c>
       <c r="G2">
-        <v>0.9900486418803446</v>
+        <v>0.9864970477187801</v>
       </c>
       <c r="H2">
-        <v>1.001551304740183</v>
+        <v>1.002158518954823</v>
       </c>
       <c r="I2">
-        <v>0.9754764058207662</v>
+        <v>0.9875342608382401</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3">
-        <v>4.051072082718957</v>
+        <v>4.132181253933076</v>
       </c>
       <c r="E3">
-        <v>0.9284174237587935</v>
+        <v>0.9255223252693289</v>
       </c>
       <c r="F3">
-        <v>2.948118586858687</v>
+        <v>3.040527380643408</v>
       </c>
       <c r="G3">
-        <v>0.9926697860580738</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1.001144202937428</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.975486531896867</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>9</v>
@@ -565,204 +562,207 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>4.064474105633963</v>
+        <v>4.155290389979193</v>
       </c>
       <c r="E4">
-        <v>0.9279430119477794</v>
+        <v>0.9246869662855527</v>
       </c>
       <c r="F4">
-        <v>2.898305918091807</v>
+        <v>3.060496572522474</v>
       </c>
       <c r="G4">
-        <v>0.995953801486122</v>
+        <v>1.005592478796549</v>
       </c>
       <c r="H4">
-        <v>1.000632628485843</v>
+        <v>0.9990974188725992</v>
       </c>
       <c r="I4">
-        <v>0.9590042954914085</v>
+        <v>1.006567673754953</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>4.018388418008132</v>
+        <v>4.174691151500172</v>
       </c>
       <c r="E5">
-        <v>0.9295678072203171</v>
+        <v>0.9239820619218773</v>
       </c>
       <c r="F5">
-        <v>2.982539003900389</v>
+        <v>3.009008509222525</v>
       </c>
       <c r="G5">
-        <v>0.9846610205279595</v>
+        <v>1.01028752006622</v>
       </c>
       <c r="H5">
-        <v>1.002384700696504</v>
+        <v>0.9983357901744797</v>
       </c>
       <c r="I5">
-        <v>0.9868757118966547</v>
+        <v>0.9896337485327255</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>4.080986587499459</v>
+        <v>4.192182383134282</v>
       </c>
       <c r="E6">
-        <v>0.9273563399106248</v>
+        <v>0.9233437235103399</v>
       </c>
       <c r="F6">
-        <v>3.022203270327033</v>
+        <v>2.993341377257676</v>
       </c>
       <c r="G6">
+        <v>1.014520449494827</v>
+      </c>
+      <c r="H6">
+        <v>0.9976460840549092</v>
+      </c>
+      <c r="I6">
+        <v>0.9844809806068094</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
       <c r="M6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>4.1831202799277</v>
+        <v>4.18798921630199</v>
       </c>
       <c r="E7">
-        <v>0.9236747760295425</v>
+        <v>0.9234969953733853</v>
       </c>
       <c r="F7">
-        <v>2.960310606060606</v>
+        <v>3.027738710856553</v>
       </c>
       <c r="G7">
-        <v>1.025026716025259</v>
+        <v>1.013505690805744</v>
       </c>
       <c r="H7">
-        <v>0.9960300439834842</v>
+        <v>0.9978116898526956</v>
       </c>
       <c r="I7">
-        <v>0.9795206811950377</v>
+        <v>0.9957939303989597</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>4.126660375786419</v>
+        <v>4.166282655862728</v>
       </c>
       <c r="E8">
-        <v>0.9257212069048458</v>
+        <v>0.9242879780989235</v>
       </c>
       <c r="F8">
-        <v>2.99847119711971</v>
+        <v>3.065346383555966</v>
       </c>
       <c r="G8">
-        <v>1.011191849644119</v>
+        <v>1.008252639425532</v>
       </c>
       <c r="H8">
-        <v>0.9982367802586689</v>
+        <v>0.9986663237215307</v>
       </c>
       <c r="I8">
-        <v>0.9921474265346966</v>
+        <v>1.00816272962071</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -770,151 +770,151 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>4.148641733966061</v>
+        <v>4.265075319484654</v>
       </c>
       <c r="E9">
-        <v>0.9249277821186815</v>
+        <v>0.9206547755810766</v>
       </c>
       <c r="F9">
-        <v>2.97858723372337</v>
+        <v>3.066704122589746</v>
       </c>
       <c r="G9">
-        <v>1.016578134972028</v>
+        <v>1.032160754184025</v>
       </c>
       <c r="H9">
-        <v>0.9973812032253132</v>
+        <v>0.9947407538906899</v>
       </c>
       <c r="I9">
-        <v>0.9855681326825698</v>
+        <v>1.008609276835652</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>4.261435391406576</v>
+        <v>4.2542284696101</v>
       </c>
       <c r="E10">
-        <v>0.9207901484170359</v>
+        <v>0.9210578406081049</v>
       </c>
       <c r="F10">
-        <v>2.975584720972096</v>
+        <v>3.139679740072037</v>
       </c>
       <c r="G10">
-        <v>1.044216955885092</v>
+        <v>1.029535784656314</v>
       </c>
       <c r="H10">
-        <v>0.9929194515516854</v>
+        <v>0.995176253949439</v>
       </c>
       <c r="I10">
-        <v>0.9845746479687011</v>
+        <v>1.032610250465052</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>4.230935909088754</v>
+        <v>4.271614312933914</v>
       </c>
       <c r="E11">
-        <v>0.9219199152599985</v>
+        <v>0.92041129306714</v>
       </c>
       <c r="F11">
-        <v>3.111964896489649</v>
+        <v>3.132629108489402</v>
       </c>
       <c r="G11">
-        <v>1.036743399757453</v>
+        <v>1.033743209804295</v>
       </c>
       <c r="H11">
-        <v>0.9941377177071434</v>
+        <v>0.9944776781038733</v>
       </c>
       <c r="I11">
-        <v>1.02970072431723</v>
+        <v>1.030291366041408</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>4.265361860542822</v>
+        <v>4.272026679484629</v>
       </c>
       <c r="E12">
-        <v>0.9206441139038076</v>
+        <v>0.9203959259003973</v>
       </c>
       <c r="F12">
-        <v>3.183006300630063</v>
+        <v>3.08832703716255</v>
       </c>
       <c r="G12">
-        <v>1.045179093116387</v>
+        <v>1.033843003720721</v>
       </c>
       <c r="H12">
-        <v>0.9927619775506532</v>
+        <v>0.9944610743263921</v>
       </c>
       <c r="I12">
-        <v>1.053207218681101</v>
+        <v>1.015720843963927</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -923,39 +923,39 @@
         <v>11</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>4.303522617831314</v>
+        <v>4.393797619525139</v>
       </c>
       <c r="E13">
-        <v>0.9192178212175449</v>
+        <v>0.9157931384442566</v>
       </c>
       <c r="F13">
-        <v>3.069415054005399</v>
+        <v>3.059963022215556</v>
       </c>
       <c r="G13">
-        <v>1.054529958763773</v>
+        <v>1.063311928861555</v>
       </c>
       <c r="H13">
-        <v>0.9912239574553787</v>
+        <v>0.9894878961215322</v>
       </c>
       <c r="I13">
-        <v>1.015621644030998</v>
+        <v>1.006392194227843</v>
       </c>
       <c r="J13">
         <v>13</v>
@@ -964,39 +964,39 @@
         <v>13</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>4.302985149864362</v>
+        <v>4.285826173771137</v>
       </c>
       <c r="E14">
-        <v>0.9192379977687193</v>
+        <v>0.9198808213711915</v>
       </c>
       <c r="F14">
-        <v>3.130650127512749</v>
+        <v>3.112356874285465</v>
       </c>
       <c r="G14">
-        <v>1.054398258265516</v>
+        <v>1.037182521868279</v>
       </c>
       <c r="H14">
-        <v>0.9912457145193099</v>
+        <v>0.9939045188385968</v>
       </c>
       <c r="I14">
-        <v>1.035883376293872</v>
+        <v>1.023624024601567</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -1005,10 +1005,10 @@
         <v>12</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1016,28 +1016,28 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>4.312930487052199</v>
+        <v>4.407472342072247</v>
       </c>
       <c r="E15">
-        <v>0.9188642416314416</v>
+        <v>0.9152681723574447</v>
       </c>
       <c r="F15">
-        <v>3.254200345034505</v>
+        <v>3.241862724565967</v>
       </c>
       <c r="G15">
-        <v>1.056835251618619</v>
+        <v>1.066621251881714</v>
       </c>
       <c r="H15">
-        <v>0.9908426805169611</v>
+        <v>0.9889206855070728</v>
       </c>
       <c r="I15">
-        <v>1.076764219331404</v>
+        <v>1.066217244154517</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>4.523841933601509</v>
+        <v>4.588246948120989</v>
       </c>
       <c r="E16">
-        <v>0.910734790896334</v>
+        <v>0.9081749969212067</v>
       </c>
       <c r="F16">
-        <v>3.321210186018602</v>
+        <v>3.371896025494133</v>
       </c>
       <c r="G16">
-        <v>1.10851673648195</v>
+        <v>1.110369237495045</v>
       </c>
       <c r="H16">
-        <v>0.9820764162609891</v>
+        <v>0.9812567153978982</v>
       </c>
       <c r="I16">
-        <v>1.098936732226887</v>
+        <v>1.10898393711574</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1095,277 +1095,277 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>4.88397062973587</v>
+        <v>4.627845087095372</v>
       </c>
       <c r="E17">
-        <v>0.8959568553674802</v>
+        <v>0.9065831952313893</v>
       </c>
       <c r="F17">
-        <v>3.451244224422443</v>
+        <v>3.429073678210321</v>
       </c>
       <c r="G17">
-        <v>1.196762235067384</v>
+        <v>1.11995210342976</v>
       </c>
       <c r="H17">
-        <v>0.9661408638817621</v>
+        <v>0.9795368198898625</v>
       </c>
       <c r="I17">
-        <v>1.141962970627381</v>
+        <v>1.12778911317835</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17">
         <v>17</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>4.731765776456499</v>
+      </c>
+      <c r="E18">
+        <v>0.9023406430311374</v>
+      </c>
+      <c r="F18">
+        <v>3.373911389629596</v>
+      </c>
+      <c r="G18">
+        <v>1.145101215478563</v>
+      </c>
+      <c r="H18">
+        <v>0.9749528654195937</v>
+      </c>
+      <c r="I18">
+        <v>1.109646770855798</v>
+      </c>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>4.693237883256627</v>
-      </c>
-      <c r="E18">
-        <v>0.9039245299485853</v>
-      </c>
-      <c r="F18">
-        <v>3.504458745874587</v>
-      </c>
-      <c r="G18">
-        <v>1.150025314376814</v>
-      </c>
-      <c r="H18">
-        <v>0.9747326793880572</v>
-      </c>
-      <c r="I18">
-        <v>1.159570827112291</v>
-      </c>
-      <c r="J18">
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>21</v>
-      </c>
       <c r="M18">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>4.937481779883846</v>
+        <v>4.798267762128941</v>
       </c>
       <c r="E19">
-        <v>0.89366447128089</v>
+        <v>0.8995762714167277</v>
       </c>
       <c r="F19">
-        <v>3.45053510351035</v>
+        <v>3.480701405821936</v>
       </c>
       <c r="G19">
-        <v>1.20987454234913</v>
+        <v>1.161194891332967</v>
       </c>
       <c r="H19">
-        <v>0.9636689078623413</v>
+        <v>0.9719660421534934</v>
       </c>
       <c r="I19">
-        <v>1.141728333560094</v>
+        <v>1.144768972639668</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>4.886832548731631</v>
+      </c>
+      <c r="E20">
+        <v>0.8958348848166799</v>
+      </c>
+      <c r="F20">
+        <v>3.507708541906744</v>
+      </c>
+      <c r="G20">
+        <v>1.182627829812708</v>
+      </c>
+      <c r="H20">
+        <v>0.9679235825629492</v>
+      </c>
+      <c r="I20">
+        <v>1.153651358062915</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>4.896891753646287</v>
-      </c>
-      <c r="E20">
-        <v>0.8954056101654161</v>
-      </c>
-      <c r="F20">
-        <v>3.646568481848182</v>
-      </c>
-      <c r="G20">
-        <v>1.199928411587051</v>
-      </c>
-      <c r="H20">
-        <v>0.9655464373616208</v>
-      </c>
-      <c r="I20">
-        <v>1.206592725794247</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>24</v>
-      </c>
       <c r="M20">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>4.932817321682952</v>
+        <v>4.974376825952585</v>
       </c>
       <c r="E21">
-        <v>0.8938652875534917</v>
+        <v>0.8920693616476101</v>
       </c>
       <c r="F21">
-        <v>3.487842596759673</v>
+        <v>3.482170672855851</v>
       </c>
       <c r="G21">
-        <v>1.208731569173187</v>
+        <v>1.203813802024752</v>
       </c>
       <c r="H21">
-        <v>0.96388545490468</v>
+        <v>0.9638550441103796</v>
       </c>
       <c r="I21">
-        <v>1.154072802119049</v>
+        <v>1.145252200333413</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>4.922626746296052</v>
+        <v>4.933455854215303</v>
       </c>
       <c r="E22">
-        <v>0.8943033563165175</v>
+        <v>0.8938378083874936</v>
       </c>
       <c r="F22">
-        <v>3.570785178517851</v>
+        <v>3.706971902046016</v>
       </c>
       <c r="G22">
-        <v>1.20623448294945</v>
+        <v>1.19391080667615</v>
       </c>
       <c r="H22">
-        <v>0.9643578394069179</v>
+        <v>0.9657657994661393</v>
       </c>
       <c r="I22">
-        <v>1.181517210829917</v>
+        <v>1.219187146823714</v>
       </c>
       <c r="J22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>4.939742183602203</v>
+        <v>4.999082699477722</v>
       </c>
       <c r="E23">
-        <v>0.8935670871265741</v>
+        <v>0.8909945968676948</v>
       </c>
       <c r="F23">
-        <v>3.475708970897089</v>
+        <v>3.523800218262351</v>
       </c>
       <c r="G23">
-        <v>1.210428428932654</v>
+        <v>1.20979269598097</v>
       </c>
       <c r="H23">
-        <v>0.963563895204181</v>
+        <v>0.9626937919713753</v>
       </c>
       <c r="I23">
-        <v>1.150057974267555</v>
+        <v>1.158943754526124</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -1374,92 +1374,92 @@
         <v>22</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>4.981995842272084</v>
+        <v>5.020031862365721</v>
       </c>
       <c r="E24">
-        <v>0.8917384839991969</v>
+        <v>0.8900790862217076</v>
       </c>
       <c r="F24">
-        <v>3.480013801380138</v>
+        <v>3.630329647254484</v>
       </c>
       <c r="G24">
-        <v>1.220782214166673</v>
+        <v>1.214862454929239</v>
       </c>
       <c r="H24">
-        <v>0.9615920500259256</v>
+        <v>0.9617046093001514</v>
       </c>
       <c r="I24">
-        <v>1.151482375639004</v>
+        <v>1.193980251704317</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.052687427252477</v>
+        <v>5.013451207091783</v>
       </c>
       <c r="E25">
-        <v>0.8886443524718264</v>
+        <v>0.8903670834087716</v>
       </c>
       <c r="F25">
-        <v>3.517235673567357</v>
+        <v>3.685065375830496</v>
       </c>
       <c r="G25">
-        <v>1.238104394346566</v>
+        <v>1.213269917025034</v>
       </c>
       <c r="H25">
-        <v>0.9582555423705527</v>
+        <v>0.9620157818988029</v>
       </c>
       <c r="I25">
-        <v>1.163798513521811</v>
+        <v>1.211982302573673</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1467,81 +1467,81 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26">
-        <v>5.044387955570988</v>
+        <v>5.034042634594102</v>
       </c>
       <c r="E26">
-        <v>0.8890098743939442</v>
+        <v>0.8894646574353204</v>
       </c>
       <c r="F26">
-        <v>3.724962646264628</v>
+        <v>3.784440236961431</v>
       </c>
       <c r="G26">
-        <v>1.236070701879428</v>
+        <v>1.218253102959271</v>
       </c>
       <c r="H26">
-        <v>0.9586496971375897</v>
+        <v>0.9610407368363421</v>
       </c>
       <c r="I26">
-        <v>1.232532134035296</v>
+        <v>1.2446657316931</v>
       </c>
       <c r="J26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>5.086208000325309</v>
+        <v>5.316873050829182</v>
       </c>
       <c r="E27">
-        <v>0.8871619386305876</v>
+        <v>0.8766952052447154</v>
       </c>
       <c r="F27">
-        <v>3.757421992199222</v>
+        <v>3.67197346838535</v>
       </c>
       <c r="G27">
-        <v>1.246318234885888</v>
+        <v>1.286698894383807</v>
       </c>
       <c r="H27">
-        <v>0.9566570049179681</v>
+        <v>0.9472437145042345</v>
       </c>
       <c r="I27">
-        <v>1.243272426143802</v>
+        <v>1.207676501044474</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1549,40 +1549,40 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.17764011699696</v>
+        <v>5.300371745310067</v>
       </c>
       <c r="E28">
-        <v>0.8830686122590793</v>
+        <v>0.8774593885027452</v>
       </c>
       <c r="F28">
-        <v>3.729454395439541</v>
+        <v>3.850979246014526</v>
       </c>
       <c r="G28">
-        <v>1.268722649777061</v>
+        <v>1.282705529982522</v>
       </c>
       <c r="H28">
-        <v>0.952243031351019</v>
+        <v>0.9480693923265467</v>
       </c>
       <c r="I28">
-        <v>1.234018383891159</v>
+        <v>1.266549767165595</v>
       </c>
       <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
         <v>27</v>
       </c>
-      <c r="K28">
-        <v>27</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
       <c r="M28">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.790751344508395</v>
+        <v>5.715990633400597</v>
       </c>
       <c r="E29">
-        <v>0.8537360775035353</v>
+        <v>0.857488339728162</v>
       </c>
       <c r="F29">
-        <v>4.250853033517636</v>
+        <v>4.266773208761135</v>
       </c>
       <c r="G29">
-        <v>1.418958680787177</v>
+        <v>1.383286521606482</v>
       </c>
       <c r="H29">
-        <v>0.9206127577515837</v>
+        <v>0.926491253983129</v>
       </c>
       <c r="I29">
-        <v>1.406541073942273</v>
+        <v>1.403300373456345</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.39265532103722</v>
+        <v>6.652951903526112</v>
       </c>
       <c r="E30">
-        <v>0.8217498268697984</v>
+        <v>0.806938289193414</v>
       </c>
       <c r="F30">
-        <v>4.272823507350736</v>
+        <v>4.389418734398406</v>
       </c>
       <c r="G30">
-        <v>1.566448500619599</v>
+        <v>1.610033900907354</v>
       </c>
       <c r="H30">
-        <v>0.8861208917264701</v>
+        <v>0.8718733920962883</v>
       </c>
       <c r="I30">
-        <v>1.413810761606506</v>
+        <v>1.443637298694399</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>12.56754509118011</v>
+        <v>12.47983536230963</v>
       </c>
       <c r="E31">
-        <v>0.3110808025553499</v>
+        <v>0.3206632724555334</v>
       </c>
       <c r="F31">
-        <v>9.726493733301895</v>
+        <v>9.653167819301361</v>
       </c>
       <c r="G31">
-        <v>3.079535994966505</v>
+        <v>3.020156811957638</v>
       </c>
       <c r="H31">
-        <v>0.3354490492676533</v>
+        <v>0.3464673554603016</v>
       </c>
       <c r="I31">
-        <v>3.218345314095763</v>
+        <v>3.174833379483874</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1716,25 +1716,25 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>12.60091231950321</v>
+        <v>12.55364262432025</v>
       </c>
       <c r="E32">
-        <v>0.307417741866029</v>
+        <v>0.3126041515840898</v>
       </c>
       <c r="F32">
-        <v>9.801327990656201</v>
+        <v>9.810958038335931</v>
       </c>
       <c r="G32">
-        <v>3.08771226009448</v>
+        <v>3.038018386142062</v>
       </c>
       <c r="H32">
-        <v>0.3314990458744874</v>
+        <v>0.3377597093545219</v>
       </c>
       <c r="I32">
-        <v>3.243106804525295</v>
+        <v>3.226729053911637</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,39 +1743,39 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>12.71505991431263</v>
+        <v>12.5887945843591</v>
       </c>
       <c r="E33">
-        <v>0.2948131508557743</v>
+        <v>0.3087491522904254</v>
       </c>
       <c r="F33">
-        <v>9.835832478247818</v>
+        <v>9.787025201288708</v>
       </c>
       <c r="G33">
-        <v>3.115682848177044</v>
+        <v>3.046525263715594</v>
       </c>
       <c r="H33">
-        <v>0.3179070850846691</v>
+        <v>0.3335944945472588</v>
       </c>
       <c r="I33">
-        <v>3.254523802160892</v>
+        <v>3.218857775659192</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1784,89 +1784,89 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>12.71835262229699</v>
+        <v>12.64199743099959</v>
       </c>
       <c r="E34">
-        <v>0.2944478714099827</v>
+        <v>0.3028940682052396</v>
       </c>
       <c r="F34">
-        <v>9.84941647379023</v>
+        <v>9.820116398471553</v>
       </c>
       <c r="G34">
-        <v>3.116489689344924</v>
+        <v>3.059400508863626</v>
       </c>
       <c r="H34">
-        <v>0.3175131917881324</v>
+        <v>0.3272682461950302</v>
       </c>
       <c r="I34">
-        <v>3.259018534754091</v>
+        <v>3.229741149837471</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L34">
         <v>33</v>
       </c>
       <c r="M34">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>12.74014697298105</v>
+        <v>12.61562452898504</v>
       </c>
       <c r="E35">
-        <v>0.2920277111675191</v>
+        <v>0.3057995473514995</v>
       </c>
       <c r="F35">
-        <v>9.908880210878223</v>
+        <v>9.93772348398217</v>
       </c>
       <c r="G35">
-        <v>3.121830150583101</v>
+        <v>3.053018189116774</v>
       </c>
       <c r="H35">
-        <v>0.3149034503777304</v>
+        <v>0.3304075320522508</v>
       </c>
       <c r="I35">
-        <v>3.278694159379287</v>
+        <v>3.268420980928395</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M35">
         <v>102</v>
@@ -1874,31 +1874,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>12.74066999099851</v>
+        <v>12.64267788691904</v>
       </c>
       <c r="E36">
-        <v>0.2919695815612821</v>
+        <v>0.3028190226871066</v>
       </c>
       <c r="F36">
-        <v>9.958003276756237</v>
+        <v>9.84436334650267</v>
       </c>
       <c r="G36">
-        <v>3.121958310283272</v>
+        <v>3.059565181194687</v>
       </c>
       <c r="H36">
-        <v>0.3148407672388599</v>
+        <v>0.3271871616916271</v>
       </c>
       <c r="I36">
-        <v>3.294948216927408</v>
+        <v>3.237715736149529</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,39 +1907,39 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>12.76203569608643</v>
+        <v>12.71181981828928</v>
       </c>
       <c r="E37">
-        <v>0.2895929006874395</v>
+        <v>0.2951725014213793</v>
       </c>
       <c r="F37">
-        <v>10.07553204154516</v>
+        <v>9.895538602180306</v>
       </c>
       <c r="G37">
-        <v>3.127193736724851</v>
+        <v>3.076297731661689</v>
       </c>
       <c r="H37">
-        <v>0.312277911115968</v>
+        <v>0.3189253174800332</v>
       </c>
       <c r="I37">
-        <v>3.333836655022509</v>
+        <v>3.25454678197514</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>13.05056912459717</v>
+        <v>12.98788537036484</v>
       </c>
       <c r="E38">
-        <v>0.2571069671343058</v>
+        <v>0.2642262719067904</v>
       </c>
       <c r="F38">
-        <v>10.08654194205134</v>
+        <v>10.04569452907154</v>
       </c>
       <c r="G38">
-        <v>3.197895617832363</v>
+        <v>3.143106406090671</v>
       </c>
       <c r="H38">
-        <v>0.2772472199403789</v>
+        <v>0.285488815010378</v>
       </c>
       <c r="I38">
-        <v>3.33747965965237</v>
+        <v>3.30393161167513</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/variable_drop_impact.xlsx
+++ b/variable_drop_impact.xlsx
@@ -52,19 +52,19 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Fine Aggregate</t>
+  </si>
+  <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
     <t>Fly Ash</t>
   </si>
   <si>
     <t>None dropped</t>
-  </si>
-  <si>
-    <t>Coarse Aggregate</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>Fine Aggregate</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -483,81 +483,84 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>4.076384607643867</v>
+        <v>4.161584537529288</v>
       </c>
       <c r="E2">
-        <v>0.9275200827515349</v>
+        <v>0.9244586354989498</v>
       </c>
       <c r="F2">
-        <v>3.002624959402118</v>
+        <v>3.044861320132013</v>
       </c>
       <c r="G2">
-        <v>0.9864970477187801</v>
+        <v>0.9896051843061207</v>
       </c>
       <c r="H2">
-        <v>1.002158518954823</v>
+        <v>1.001728650557665</v>
       </c>
       <c r="I2">
-        <v>0.9875342608382401</v>
+        <v>0.9796524655903744</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3">
-        <v>4.132181253933076</v>
+        <v>4.141089895551845</v>
       </c>
       <c r="E3">
-        <v>0.9255223252693289</v>
+        <v>0.9252008436633279</v>
       </c>
       <c r="F3">
-        <v>3.040527380643408</v>
+        <v>3.066950099009901</v>
       </c>
       <c r="G3">
+        <v>0.9847316550605952</v>
+      </c>
+      <c r="H3">
+        <v>1.002532895501014</v>
+      </c>
+      <c r="I3">
+        <v>0.9867593004884136</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -565,28 +568,28 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>4.155290389979193</v>
+        <v>4.164315459155872</v>
       </c>
       <c r="E4">
-        <v>0.9246869662855527</v>
+        <v>0.9243594592200067</v>
       </c>
       <c r="F4">
-        <v>3.060496572522474</v>
+        <v>3.046724686468646</v>
       </c>
       <c r="G4">
-        <v>1.005592478796549</v>
+        <v>0.9902545845946956</v>
       </c>
       <c r="H4">
-        <v>0.9990974188725992</v>
+        <v>1.001621184721706</v>
       </c>
       <c r="I4">
-        <v>1.006567673754953</v>
+        <v>0.9802519843316421</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -595,15 +598,15 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -612,22 +615,22 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>4.174691151500172</v>
+        <v>4.189359761350992</v>
       </c>
       <c r="E5">
-        <v>0.9239820619218773</v>
+        <v>0.9234469150291708</v>
       </c>
       <c r="F5">
-        <v>3.009008509222525</v>
+        <v>2.985480462046203</v>
       </c>
       <c r="G5">
-        <v>1.01028752006622</v>
+        <v>0.9962100015917835</v>
       </c>
       <c r="H5">
-        <v>0.9983357901744797</v>
+        <v>1.000632366373585</v>
       </c>
       <c r="I5">
-        <v>0.9896337485327255</v>
+        <v>0.9605472920154695</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -636,133 +639,133 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>4.192182383134282</v>
+        <v>4.19185247919934</v>
       </c>
       <c r="E6">
-        <v>0.9233437235103399</v>
+        <v>0.9233557879721754</v>
       </c>
       <c r="F6">
-        <v>2.993341377257676</v>
+        <v>3.002799834983499</v>
       </c>
       <c r="G6">
-        <v>1.014520449494827</v>
+        <v>0.9968027581448444</v>
       </c>
       <c r="H6">
-        <v>0.9976460840549092</v>
+        <v>1.000533622546303</v>
       </c>
       <c r="I6">
-        <v>0.9844809806068094</v>
+        <v>0.9661196201501926</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>4.18798921630199</v>
+        <v>4.187122020724982</v>
       </c>
       <c r="E7">
-        <v>0.9234969953733853</v>
+        <v>0.9235286746328457</v>
       </c>
       <c r="F7">
-        <v>3.027738710856553</v>
+        <v>3.108782442244224</v>
       </c>
       <c r="G7">
-        <v>1.013505690805744</v>
+        <v>0.9956778774201702</v>
       </c>
       <c r="H7">
-        <v>0.9978116898526956</v>
+        <v>1.000720959777675</v>
       </c>
       <c r="I7">
-        <v>0.9957939303989597</v>
+        <v>1.0002184219006</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>4.166282655862728</v>
+        <v>4.201579715369313</v>
       </c>
       <c r="E8">
-        <v>0.9242879780989235</v>
+        <v>0.9229996679190532</v>
       </c>
       <c r="F8">
-        <v>3.065346383555966</v>
+        <v>3.069284158415844</v>
       </c>
       <c r="G8">
-        <v>1.008252639425532</v>
+        <v>0.9991158490495147</v>
       </c>
       <c r="H8">
-        <v>0.9986663237215307</v>
+        <v>1.000147736529825</v>
       </c>
       <c r="I8">
-        <v>1.00816272962071</v>
+        <v>0.9875102598298943</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -770,28 +773,28 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9">
-        <v>4.265075319484654</v>
+        <v>4.219527288896617</v>
       </c>
       <c r="E9">
-        <v>0.9206547755810766</v>
+        <v>0.9223404298026833</v>
       </c>
       <c r="F9">
-        <v>3.066704122589746</v>
+        <v>3.05906320132013</v>
       </c>
       <c r="G9">
-        <v>1.032160754184025</v>
+        <v>1.003383697425095</v>
       </c>
       <c r="H9">
-        <v>0.9947407538906899</v>
+        <v>0.9994333966087635</v>
       </c>
       <c r="I9">
-        <v>1.008609276835652</v>
+        <v>0.9842217731742605</v>
       </c>
       <c r="J9">
         <v>9</v>
@@ -800,39 +803,36 @@
         <v>9</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>4.2542284696101</v>
+        <v>4.205297833445828</v>
       </c>
       <c r="E10">
-        <v>0.9210578406081049</v>
+        <v>0.9228633272935756</v>
       </c>
       <c r="F10">
-        <v>3.139679740072037</v>
+        <v>3.108103564356436</v>
       </c>
       <c r="G10">
-        <v>1.029535784656314</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.995176253949439</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032610250465052</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -841,39 +841,39 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>4.271614312933914</v>
+        <v>4.264804630707518</v>
       </c>
       <c r="E11">
-        <v>0.92041129306714</v>
+        <v>0.9206648467655693</v>
       </c>
       <c r="F11">
-        <v>3.132629108489402</v>
+        <v>3.104990693069305</v>
       </c>
       <c r="G11">
-        <v>1.033743209804295</v>
+        <v>1.014150435859362</v>
       </c>
       <c r="H11">
-        <v>0.9944776781038733</v>
+        <v>0.9976177615222249</v>
       </c>
       <c r="I11">
-        <v>1.030291366041408</v>
+        <v>0.9989984660347778</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -882,39 +882,39 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>4.272026679484629</v>
+        <v>4.282563781826039</v>
       </c>
       <c r="E12">
-        <v>0.9203959259003973</v>
+        <v>0.9200027491724977</v>
       </c>
       <c r="F12">
-        <v>3.08832703716255</v>
+        <v>3.254179405940594</v>
       </c>
       <c r="G12">
-        <v>1.033843003720721</v>
+        <v>1.018373478274403</v>
       </c>
       <c r="H12">
-        <v>0.9944610743263921</v>
+        <v>0.9969003231177612</v>
       </c>
       <c r="I12">
-        <v>1.015720843963927</v>
+        <v>1.04699838295588</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -923,92 +923,92 @@
         <v>11</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>4.393797619525139</v>
+        <v>4.312001832543069</v>
       </c>
       <c r="E13">
-        <v>0.9157931384442566</v>
+        <v>0.918899177958966</v>
       </c>
       <c r="F13">
-        <v>3.059963022215556</v>
+        <v>3.159363432343233</v>
       </c>
       <c r="G13">
-        <v>1.063311928861555</v>
+        <v>1.025373707956805</v>
       </c>
       <c r="H13">
-        <v>0.9894878961215322</v>
+        <v>0.9957045109309577</v>
       </c>
       <c r="I13">
-        <v>1.006392194227843</v>
+        <v>1.016492329462455</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>4.401993457269083</v>
+      </c>
+      <c r="E14">
+        <v>0.9154786999992721</v>
+      </c>
+      <c r="F14">
+        <v>3.241031287128709</v>
+      </c>
+      <c r="G14">
+        <v>1.046773292074317</v>
+      </c>
+      <c r="H14">
+        <v>0.9919981355029461</v>
+      </c>
+      <c r="I14">
+        <v>1.042768112458247</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>4.285826173771137</v>
-      </c>
-      <c r="E14">
-        <v>0.9198808213711915</v>
-      </c>
-      <c r="F14">
-        <v>3.112356874285465</v>
-      </c>
-      <c r="G14">
-        <v>1.037182521868279</v>
-      </c>
-      <c r="H14">
-        <v>0.9939045188385968</v>
-      </c>
-      <c r="I14">
-        <v>1.023624024601567</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>11</v>
-      </c>
       <c r="M14">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1016,28 +1016,28 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>4.407472342072247</v>
+        <v>4.51646813062058</v>
       </c>
       <c r="E15">
-        <v>0.9152681723574447</v>
+        <v>0.9110255559700662</v>
       </c>
       <c r="F15">
-        <v>3.241862724565967</v>
+        <v>3.337185016501651</v>
       </c>
       <c r="G15">
-        <v>1.066621251881714</v>
+        <v>1.073994829735943</v>
       </c>
       <c r="H15">
-        <v>0.9889206855070728</v>
+        <v>0.9871727795726533</v>
       </c>
       <c r="I15">
-        <v>1.066217244154517</v>
+        <v>1.073704574960857</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1054,31 +1054,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>4.588246948120989</v>
+        <v>4.612659380351581</v>
       </c>
       <c r="E16">
-        <v>0.9081749969212067</v>
+        <v>0.907195260974348</v>
       </c>
       <c r="F16">
-        <v>3.371896025494133</v>
+        <v>3.433739471947195</v>
       </c>
       <c r="G16">
-        <v>1.110369237495045</v>
+        <v>1.096868655453105</v>
       </c>
       <c r="H16">
-        <v>0.9812567153978982</v>
+        <v>0.9830223329328988</v>
       </c>
       <c r="I16">
-        <v>1.10898393711574</v>
+        <v>1.104769966910091</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1095,31 +1095,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>4.627845087095372</v>
+        <v>4.63739102087366</v>
       </c>
       <c r="E17">
-        <v>0.9065831952313893</v>
+        <v>0.906197412937556</v>
       </c>
       <c r="F17">
-        <v>3.429073678210321</v>
+        <v>3.459136435643563</v>
       </c>
       <c r="G17">
-        <v>1.11995210342976</v>
+        <v>1.102749722978307</v>
       </c>
       <c r="H17">
-        <v>0.9795368198898625</v>
+        <v>0.9819410806962124</v>
       </c>
       <c r="I17">
-        <v>1.12778911317835</v>
+        <v>1.112941175870957</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1128,244 +1128,244 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>4.731765776456499</v>
+        <v>4.903132638845025</v>
       </c>
       <c r="E18">
-        <v>0.9023406430311374</v>
+        <v>0.8951388378653475</v>
       </c>
       <c r="F18">
-        <v>3.373911389629596</v>
+        <v>3.566195907590759</v>
       </c>
       <c r="G18">
-        <v>1.145101215478563</v>
+        <v>1.16594182696149</v>
       </c>
       <c r="H18">
-        <v>0.9749528654195937</v>
+        <v>0.9699581849139742</v>
       </c>
       <c r="I18">
-        <v>1.109646770855798</v>
+        <v>1.147386447635691</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>4.798267762128941</v>
+        <v>4.91079023817572</v>
       </c>
       <c r="E19">
-        <v>0.8995762714167277</v>
+        <v>0.8948110426104758</v>
       </c>
       <c r="F19">
-        <v>3.480701405821936</v>
+        <v>3.562303234323432</v>
       </c>
       <c r="G19">
-        <v>1.161194891332967</v>
+        <v>1.16776276798255</v>
       </c>
       <c r="H19">
-        <v>0.9719660421534934</v>
+        <v>0.9696029911976599</v>
       </c>
       <c r="I19">
-        <v>1.144768972639668</v>
+        <v>1.146134020492668</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>4.886832548731631</v>
+        <v>4.92492326472716</v>
       </c>
       <c r="E20">
-        <v>0.8958348848166799</v>
+        <v>0.8942047134888569</v>
       </c>
       <c r="F20">
-        <v>3.507708541906744</v>
+        <v>3.470153729372937</v>
       </c>
       <c r="G20">
-        <v>1.182627829812708</v>
+        <v>1.171123535069969</v>
       </c>
       <c r="H20">
-        <v>0.9679235825629492</v>
+        <v>0.9689459826204558</v>
       </c>
       <c r="I20">
-        <v>1.153651358062915</v>
+        <v>1.116485875557196</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>4.974376825952585</v>
+        <v>4.873160874861124</v>
       </c>
       <c r="E21">
-        <v>0.8920693616476101</v>
+        <v>0.8964169057403106</v>
       </c>
       <c r="F21">
-        <v>3.482170672855851</v>
+        <v>3.682377491749175</v>
       </c>
       <c r="G21">
-        <v>1.203813802024752</v>
+        <v>1.15881468278028</v>
       </c>
       <c r="H21">
-        <v>0.9638550441103796</v>
+        <v>0.9713430789033272</v>
       </c>
       <c r="I21">
-        <v>1.145252200333413</v>
+        <v>1.184766664141595</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>4.933455854215303</v>
+        <v>4.943492097928734</v>
       </c>
       <c r="E22">
-        <v>0.8938378083874936</v>
+        <v>0.8934054326190729</v>
       </c>
       <c r="F22">
-        <v>3.706971902046016</v>
+        <v>3.502673333333334</v>
       </c>
       <c r="G22">
-        <v>1.19391080667615</v>
+        <v>1.175539116067323</v>
       </c>
       <c r="H22">
-        <v>0.9657657994661393</v>
+        <v>0.9680798946027122</v>
       </c>
       <c r="I22">
-        <v>1.219187146823714</v>
+        <v>1.126948719953158</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
       <c r="D23">
-        <v>4.999082699477722</v>
+        <v>4.981956170890258</v>
       </c>
       <c r="E23">
-        <v>0.8909945968676948</v>
+        <v>0.8917402081543244</v>
       </c>
       <c r="F23">
-        <v>3.523800218262351</v>
+        <v>3.591671617161716</v>
       </c>
       <c r="G23">
-        <v>1.20979269598097</v>
+        <v>1.184685691288608</v>
       </c>
       <c r="H23">
-        <v>0.9626937919713753</v>
+        <v>0.966275483900174</v>
       </c>
       <c r="I23">
-        <v>1.158943754526124</v>
+        <v>1.15558299226281</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -1374,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1391,157 +1391,157 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>5.020031862365721</v>
+        <v>5.0229530716529</v>
       </c>
       <c r="E24">
-        <v>0.8900790862217076</v>
+        <v>0.8899511207309287</v>
       </c>
       <c r="F24">
-        <v>3.630329647254484</v>
+        <v>3.568590693069309</v>
       </c>
       <c r="G24">
-        <v>1.214862454929239</v>
+        <v>1.194434561020636</v>
       </c>
       <c r="H24">
-        <v>0.9617046093001514</v>
+        <v>0.9643368572688152</v>
       </c>
       <c r="I24">
-        <v>1.193980251704317</v>
+        <v>1.148156944959529</v>
       </c>
       <c r="J24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25">
-        <v>5.013451207091783</v>
+        <v>5.045197602583666</v>
       </c>
       <c r="E25">
-        <v>0.8903670834087716</v>
+        <v>0.8889742427033925</v>
       </c>
       <c r="F25">
-        <v>3.685065375830496</v>
+        <v>3.843129636963698</v>
       </c>
       <c r="G25">
-        <v>1.213269917025034</v>
+        <v>1.199724205609861</v>
       </c>
       <c r="H25">
-        <v>0.9620157818988029</v>
+        <v>0.9632783278001007</v>
       </c>
       <c r="I25">
-        <v>1.211982302573673</v>
+        <v>1.236486995168534</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>5.034042634594102</v>
+        <v>5.206613356833192</v>
       </c>
       <c r="E26">
-        <v>0.8894646574353204</v>
+        <v>0.8817562923283285</v>
       </c>
       <c r="F26">
-        <v>3.784440236961431</v>
+        <v>3.6418201320132</v>
       </c>
       <c r="G26">
-        <v>1.218253102959271</v>
+        <v>1.238108111017403</v>
       </c>
       <c r="H26">
-        <v>0.9610407368363421</v>
+        <v>0.9554570717575276</v>
       </c>
       <c r="I26">
-        <v>1.2446657316931</v>
+        <v>1.171717755411177</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>5.316873050829182</v>
+        <v>5.09041883981841</v>
       </c>
       <c r="E27">
-        <v>0.8766952052447154</v>
+        <v>0.8869750254532108</v>
       </c>
       <c r="F27">
-        <v>3.67197346838535</v>
+        <v>3.820564653465348</v>
       </c>
       <c r="G27">
-        <v>1.286698894383807</v>
+        <v>1.210477602640409</v>
       </c>
       <c r="H27">
-        <v>0.9472437145042345</v>
+        <v>0.96111200783586</v>
       </c>
       <c r="I27">
-        <v>1.207676501044474</v>
+        <v>1.229226946386014</v>
       </c>
       <c r="J27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1549,40 +1549,40 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.300371745310067</v>
+        <v>5.24454794655984</v>
       </c>
       <c r="E28">
-        <v>0.8774593885027452</v>
+        <v>0.8800270043399964</v>
       </c>
       <c r="F28">
-        <v>3.850979246014526</v>
+        <v>3.825792343234324</v>
       </c>
       <c r="G28">
-        <v>1.282705529982522</v>
+        <v>1.247128777621548</v>
       </c>
       <c r="H28">
-        <v>0.9480693923265467</v>
+        <v>0.953583242841383</v>
       </c>
       <c r="I28">
-        <v>1.266549767165595</v>
+        <v>1.230908901205322</v>
       </c>
       <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28">
         <v>26</v>
       </c>
-      <c r="K28">
-        <v>26</v>
-      </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
       <c r="M28">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.715990633400597</v>
+        <v>5.587609485683235</v>
       </c>
       <c r="E29">
-        <v>0.857488339728162</v>
+        <v>0.8638180731794863</v>
       </c>
       <c r="F29">
-        <v>4.266773208761135</v>
+        <v>4.207230231023104</v>
       </c>
       <c r="G29">
-        <v>1.383286521606482</v>
+        <v>1.328707194349833</v>
       </c>
       <c r="H29">
-        <v>0.926491253983129</v>
+        <v>0.9360195032483871</v>
       </c>
       <c r="I29">
-        <v>1.403300373456345</v>
+        <v>1.353632574947435</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.652951903526112</v>
+        <v>6.760418094045898</v>
       </c>
       <c r="E30">
-        <v>0.806938289193414</v>
+        <v>0.8006508015957432</v>
       </c>
       <c r="F30">
-        <v>4.389418734398406</v>
+        <v>4.519709966996699</v>
       </c>
       <c r="G30">
-        <v>1.610033900907354</v>
+        <v>1.607595552514386</v>
       </c>
       <c r="H30">
-        <v>0.8718733920962883</v>
+        <v>0.8675724540314789</v>
       </c>
       <c r="I30">
-        <v>1.443637298694399</v>
+        <v>1.454169680453538</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>12.47983536230963</v>
+        <v>12.43976941970702</v>
       </c>
       <c r="E31">
-        <v>0.3206632724555334</v>
+        <v>0.3250182297194698</v>
       </c>
       <c r="F31">
-        <v>9.653167819301361</v>
+        <v>9.692229190947659</v>
       </c>
       <c r="G31">
-        <v>3.020156811957638</v>
+        <v>2.958118523917688</v>
       </c>
       <c r="H31">
-        <v>0.3464673554603016</v>
+        <v>0.3521845760982081</v>
       </c>
       <c r="I31">
-        <v>3.174833379483874</v>
+        <v>3.118373950629452</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1716,25 +1716,25 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>12.55364262432025</v>
+        <v>12.53279913707926</v>
       </c>
       <c r="E32">
-        <v>0.3126041515840898</v>
+        <v>0.3148848970979293</v>
       </c>
       <c r="F32">
-        <v>9.810958038335931</v>
+        <v>9.778655080622341</v>
       </c>
       <c r="G32">
-        <v>3.038018386142062</v>
+        <v>2.980240552144166</v>
       </c>
       <c r="H32">
-        <v>0.3377597093545219</v>
+        <v>0.3412042582961584</v>
       </c>
       <c r="I32">
-        <v>3.226729053911637</v>
+        <v>3.146180581871026</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1751,163 +1751,163 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>12.5887945843591</v>
+        <v>12.58037617416421</v>
       </c>
       <c r="E33">
-        <v>0.3087491522904254</v>
+        <v>0.3096733531610516</v>
       </c>
       <c r="F33">
-        <v>9.787025201288708</v>
+        <v>9.761599956624227</v>
       </c>
       <c r="G33">
-        <v>3.046525263715594</v>
+        <v>2.991554147273282</v>
       </c>
       <c r="H33">
-        <v>0.3335944945472588</v>
+        <v>0.3355571123074221</v>
       </c>
       <c r="I33">
-        <v>3.218857775659192</v>
+        <v>3.140693273084504</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L33">
         <v>31</v>
       </c>
       <c r="M33">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>12.64199743099959</v>
+        <v>12.57483293761384</v>
       </c>
       <c r="E34">
-        <v>0.3028940682052396</v>
+        <v>0.3102815704017357</v>
       </c>
       <c r="F34">
-        <v>9.820116398471553</v>
+        <v>9.847552806223471</v>
       </c>
       <c r="G34">
-        <v>3.059400508863626</v>
+        <v>2.990235991753763</v>
       </c>
       <c r="H34">
-        <v>0.3272682461950302</v>
+        <v>0.3362161668203669</v>
       </c>
       <c r="I34">
-        <v>3.229741149837471</v>
+        <v>3.168347708601051</v>
       </c>
       <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>32</v>
+      </c>
+      <c r="L34">
         <v>34</v>
       </c>
-      <c r="K34">
-        <v>34</v>
-      </c>
-      <c r="L34">
-        <v>33</v>
-      </c>
       <c r="M34">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>12.61562452898504</v>
+        <v>12.59348435576538</v>
       </c>
       <c r="E35">
-        <v>0.3057995473514995</v>
+        <v>0.3082340255588539</v>
       </c>
       <c r="F35">
-        <v>9.93772348398217</v>
+        <v>9.809235738802442</v>
       </c>
       <c r="G35">
-        <v>3.053018189116774</v>
+        <v>2.994671211062894</v>
       </c>
       <c r="H35">
-        <v>0.3304075320522508</v>
+        <v>0.3339974798465477</v>
       </c>
       <c r="I35">
-        <v>3.268420980928395</v>
+        <v>3.156019590625689</v>
       </c>
       <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35">
         <v>33</v>
       </c>
-      <c r="K35">
-        <v>33</v>
-      </c>
-      <c r="L35">
-        <v>36</v>
-      </c>
       <c r="M35">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>12.64267788691904</v>
+        <v>12.58071924341434</v>
       </c>
       <c r="E36">
-        <v>0.3028190226871066</v>
+        <v>0.3096357019698641</v>
       </c>
       <c r="F36">
-        <v>9.84436334650267</v>
+        <v>9.932727404997634</v>
       </c>
       <c r="G36">
-        <v>3.059565181194687</v>
+        <v>2.99163572752365</v>
       </c>
       <c r="H36">
-        <v>0.3271871616916271</v>
+        <v>0.3355163140764447</v>
       </c>
       <c r="I36">
-        <v>3.237715736149529</v>
+        <v>3.195751750007824</v>
       </c>
       <c r="J36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M36">
         <v>104</v>
@@ -1915,31 +1915,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>12.71181981828928</v>
+        <v>12.62666433272181</v>
       </c>
       <c r="E37">
-        <v>0.2951725014213793</v>
+        <v>0.304584040341744</v>
       </c>
       <c r="F37">
-        <v>9.895538602180306</v>
+        <v>9.866027863272036</v>
       </c>
       <c r="G37">
-        <v>3.076297731661689</v>
+        <v>3.002561253164677</v>
       </c>
       <c r="H37">
-        <v>0.3189253174800332</v>
+        <v>0.330042414010511</v>
       </c>
       <c r="I37">
-        <v>3.25454678197514</v>
+        <v>3.174291866080369</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>12.98788537036484</v>
+        <v>12.86264897662483</v>
       </c>
       <c r="E38">
-        <v>0.2642262719067904</v>
+        <v>0.2783473371884484</v>
       </c>
       <c r="F38">
-        <v>10.04569452907154</v>
+        <v>9.968910731730309</v>
       </c>
       <c r="G38">
-        <v>3.143106406090671</v>
+        <v>3.058677288995999</v>
       </c>
       <c r="H38">
-        <v>0.285488815010378</v>
+        <v>0.3016127404311758</v>
       </c>
       <c r="I38">
-        <v>3.30393161167513</v>
+        <v>3.207393359105932</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/variable_drop_impact.xlsx
+++ b/variable_drop_impact.xlsx
@@ -52,19 +52,19 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
     <t>Fine Aggregate</t>
   </si>
   <si>
+    <t>None dropped</t>
+  </si>
+  <si>
     <t>Coarse Aggregate</t>
   </si>
   <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
     <t>Fly Ash</t>
-  </si>
-  <si>
-    <t>None dropped</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -483,113 +483,110 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>4.161584537529288</v>
+        <v>4.074513545718668</v>
       </c>
       <c r="E2">
-        <v>0.9244586354989498</v>
+        <v>0.9275866040948448</v>
       </c>
       <c r="F2">
-        <v>3.044861320132013</v>
+        <v>2.932129937187266</v>
       </c>
       <c r="G2">
-        <v>0.9896051843061207</v>
+        <v>0.9815742289887992</v>
       </c>
       <c r="H2">
-        <v>1.001728650557665</v>
+        <v>1.002967159411311</v>
       </c>
       <c r="I2">
-        <v>0.9796524655903744</v>
+        <v>0.9572216257772661</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>3</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>4.141089895551845</v>
+        <v>4.136015792628333</v>
       </c>
       <c r="E3">
-        <v>0.9252008436633279</v>
+        <v>0.9253840350945257</v>
       </c>
       <c r="F3">
-        <v>3.066950099009901</v>
+        <v>2.98428829979772</v>
       </c>
       <c r="G3">
-        <v>0.9847316550605952</v>
+        <v>0.9963904812638387</v>
       </c>
       <c r="H3">
-        <v>1.002532895501014</v>
+        <v>1.000585598095197</v>
       </c>
       <c r="I3">
-        <v>0.9867593004884136</v>
+        <v>0.9742492179117924</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>6</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>4.164315459155872</v>
+        <v>4.150998900935043</v>
       </c>
       <c r="E4">
-        <v>0.9243594592200067</v>
+        <v>0.9248424491179648</v>
       </c>
       <c r="F4">
-        <v>3.046724686468646</v>
+        <v>3.06316725220909</v>
       </c>
       <c r="G4">
-        <v>0.9902545845946956</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.001621184721706</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.9802519843316421</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -598,92 +595,92 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>4.189359761350992</v>
+        <v>4.177926177427745</v>
       </c>
       <c r="E5">
-        <v>0.9234469150291708</v>
+        <v>0.9238642015699994</v>
       </c>
       <c r="F5">
-        <v>2.985480462046203</v>
+        <v>3.048609762589161</v>
       </c>
       <c r="G5">
-        <v>0.9962100015917835</v>
+        <v>1.006486938959833</v>
       </c>
       <c r="H5">
-        <v>1.000632366373585</v>
+        <v>0.9989422549225564</v>
       </c>
       <c r="I5">
-        <v>0.9605472920154695</v>
+        <v>0.995247569453013</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>4.19185247919934</v>
+        <v>4.172289809404364</v>
       </c>
       <c r="E6">
-        <v>0.9233557879721754</v>
+        <v>0.9240694899815114</v>
       </c>
       <c r="F6">
-        <v>3.002799834983499</v>
+        <v>3.083328116682634</v>
       </c>
       <c r="G6">
-        <v>0.9968027581448444</v>
+        <v>1.005129104819692</v>
       </c>
       <c r="H6">
-        <v>1.000533622546303</v>
+        <v>0.9991642261477178</v>
       </c>
       <c r="I6">
-        <v>0.9661196201501926</v>
+        <v>1.006581705409329</v>
       </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
       <c r="M6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -691,28 +688,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>4.187122020724982</v>
+        <v>4.169446012739839</v>
       </c>
       <c r="E7">
-        <v>0.9235286746328457</v>
+        <v>0.9241729618651335</v>
       </c>
       <c r="F7">
-        <v>3.108782442244224</v>
+        <v>3.094712338975831</v>
       </c>
       <c r="G7">
-        <v>0.9956778774201702</v>
+        <v>1.004444017511217</v>
       </c>
       <c r="H7">
-        <v>1.000720959777675</v>
+        <v>0.9992761066996116</v>
       </c>
       <c r="I7">
-        <v>1.0002184219006</v>
+        <v>1.010298192742819</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -721,159 +718,162 @@
         <v>4</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>4.201579715369313</v>
+        <v>4.232057476454018</v>
       </c>
       <c r="E8">
-        <v>0.9229996679190532</v>
+        <v>0.9218785136959353</v>
       </c>
       <c r="F8">
-        <v>3.069284158415844</v>
+        <v>3.052427765357179</v>
       </c>
       <c r="G8">
-        <v>0.9991158490495147</v>
+        <v>1.019527486625139</v>
       </c>
       <c r="H8">
-        <v>1.000147736529825</v>
+        <v>0.9967951996311846</v>
       </c>
       <c r="I8">
-        <v>0.9875102598298943</v>
+        <v>0.9964939926658704</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>4.219527288896617</v>
+        <v>4.208276054133758</v>
       </c>
       <c r="E9">
-        <v>0.9223404298026833</v>
+        <v>0.9227540311667636</v>
       </c>
       <c r="F9">
-        <v>3.05906320132013</v>
+        <v>3.091184552326198</v>
       </c>
       <c r="G9">
-        <v>1.003383697425095</v>
+        <v>1.013798402400399</v>
       </c>
       <c r="H9">
-        <v>0.9994333966087635</v>
+        <v>0.9977418662463072</v>
       </c>
       <c r="I9">
-        <v>0.9842217731742605</v>
+        <v>1.009146513334165</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>4.205297833445828</v>
+        <v>4.253470548780794</v>
       </c>
       <c r="E10">
-        <v>0.9228633272935756</v>
+        <v>0.9210859663082654</v>
       </c>
       <c r="F10">
-        <v>3.108103564356436</v>
+        <v>3.112090359842434</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.024686021435146</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.9959382456835951</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>1.015971412464684</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>4.264804630707518</v>
+        <v>4.270911609905506</v>
       </c>
       <c r="E11">
-        <v>0.9206648467655693</v>
+        <v>0.9204374764353613</v>
       </c>
       <c r="F11">
-        <v>3.104990693069305</v>
+        <v>3.148857234110505</v>
       </c>
       <c r="G11">
-        <v>1.014150435859362</v>
+        <v>1.0288876754324</v>
       </c>
       <c r="H11">
-        <v>0.9976177615222249</v>
+        <v>0.9952370561204187</v>
       </c>
       <c r="I11">
-        <v>0.9989984660347778</v>
+        <v>1.027974307259787</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -882,89 +882,89 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>4.282563781826039</v>
+        <v>4.409955000856601</v>
       </c>
       <c r="E12">
-        <v>0.9200027491724977</v>
+        <v>0.9151726893022352</v>
       </c>
       <c r="F12">
-        <v>3.254179405940594</v>
+        <v>3.123906872138826</v>
       </c>
       <c r="G12">
-        <v>1.018373478274403</v>
+        <v>1.06238404444367</v>
       </c>
       <c r="H12">
-        <v>0.9969003231177612</v>
+        <v>0.9895444247558578</v>
       </c>
       <c r="I12">
-        <v>1.04699838295588</v>
+        <v>1.019829024969477</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>4.312001832543069</v>
+        <v>4.381708312575835</v>
       </c>
       <c r="E13">
-        <v>0.918899177958966</v>
+        <v>0.9162558826094932</v>
       </c>
       <c r="F13">
-        <v>3.159363432343233</v>
+        <v>3.271613808155007</v>
       </c>
       <c r="G13">
-        <v>1.025373707956805</v>
+        <v>1.055579251439653</v>
       </c>
       <c r="H13">
-        <v>0.9957045109309577</v>
+        <v>0.9907156440357374</v>
       </c>
       <c r="I13">
-        <v>1.016492329462455</v>
+        <v>1.068049355057446</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13">
         <v>35</v>
@@ -975,28 +975,28 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>4.401993457269083</v>
+        <v>4.443823193875248</v>
       </c>
       <c r="E14">
-        <v>0.9154786999992721</v>
+        <v>0.9138647486245854</v>
       </c>
       <c r="F14">
-        <v>3.241031287128709</v>
+        <v>3.229221787501328</v>
       </c>
       <c r="G14">
-        <v>1.046773292074317</v>
+        <v>1.070543090935111</v>
       </c>
       <c r="H14">
-        <v>0.9919981355029461</v>
+        <v>0.9881301939548202</v>
       </c>
       <c r="I14">
-        <v>1.042768112458247</v>
+        <v>1.054210077876905</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1016,28 +1016,28 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>4.51646813062058</v>
+        <v>4.457431238373093</v>
       </c>
       <c r="E15">
-        <v>0.9110255559700662</v>
+        <v>0.9133364076189007</v>
       </c>
       <c r="F15">
-        <v>3.337185016501651</v>
+        <v>3.336762269775364</v>
       </c>
       <c r="G15">
-        <v>1.073994829735943</v>
+        <v>1.073821348728621</v>
       </c>
       <c r="H15">
-        <v>0.9871727795726533</v>
+        <v>0.9875589171863407</v>
       </c>
       <c r="I15">
-        <v>1.073704574960857</v>
+        <v>1.089317688209472</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1057,28 +1057,28 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>4.612659380351581</v>
+        <v>4.595024933011463</v>
       </c>
       <c r="E16">
-        <v>0.907195260974348</v>
+        <v>0.9079034996796789</v>
       </c>
       <c r="F16">
-        <v>3.433739471947195</v>
+        <v>3.394653412115403</v>
       </c>
       <c r="G16">
-        <v>1.096868655453105</v>
+        <v>1.106968477388997</v>
       </c>
       <c r="H16">
-        <v>0.9830223329328988</v>
+        <v>0.9816845026367023</v>
       </c>
       <c r="I16">
-        <v>1.104769966910091</v>
+        <v>1.108216800655352</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1104,22 +1104,22 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>4.63739102087366</v>
+        <v>4.646282790358989</v>
       </c>
       <c r="E17">
-        <v>0.906197412937556</v>
+        <v>0.9058373524619088</v>
       </c>
       <c r="F17">
-        <v>3.459136435643563</v>
+        <v>3.516409507079738</v>
       </c>
       <c r="G17">
-        <v>1.102749722978307</v>
+        <v>1.119316796087896</v>
       </c>
       <c r="H17">
-        <v>0.9819410806962124</v>
+        <v>0.9794504494531134</v>
       </c>
       <c r="I17">
-        <v>1.112941175870957</v>
+        <v>1.14796523256893</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1128,203 +1128,203 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>4.903132638845025</v>
+        <v>4.791905104395818</v>
       </c>
       <c r="E18">
-        <v>0.8951388378653475</v>
+        <v>0.8998424250383819</v>
       </c>
       <c r="F18">
-        <v>3.566195907590759</v>
+        <v>3.448881773661236</v>
       </c>
       <c r="G18">
-        <v>1.16594182696149</v>
+        <v>1.154398066286263</v>
       </c>
       <c r="H18">
-        <v>0.9699581849139742</v>
+        <v>0.9729683427664617</v>
       </c>
       <c r="I18">
-        <v>1.147386447635691</v>
+        <v>1.125920163573823</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>4.91079023817572</v>
+        <v>4.830885909166219</v>
       </c>
       <c r="E19">
-        <v>0.8948110426104758</v>
+        <v>0.8982062896518123</v>
       </c>
       <c r="F19">
-        <v>3.562303234323432</v>
+        <v>3.563577025444479</v>
       </c>
       <c r="G19">
-        <v>1.16776276798255</v>
+        <v>1.163788770957763</v>
       </c>
       <c r="H19">
-        <v>0.9696029911976599</v>
+        <v>0.9711992464321293</v>
       </c>
       <c r="I19">
-        <v>1.146134020492668</v>
+        <v>1.163363516267192</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19">
         <v>19</v>
       </c>
       <c r="M19">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>4.897347141976547</v>
+      </c>
+      <c r="E20">
+        <v>0.8953861556699229</v>
+      </c>
+      <c r="F20">
+        <v>3.672919674225486</v>
+      </c>
+      <c r="G20">
+        <v>1.179799672043609</v>
+      </c>
+      <c r="H20">
+        <v>0.9681499335631331</v>
+      </c>
+      <c r="I20">
+        <v>1.199059460947376</v>
+      </c>
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>4.92492326472716</v>
-      </c>
-      <c r="E20">
-        <v>0.8942047134888569</v>
-      </c>
-      <c r="F20">
-        <v>3.470153729372937</v>
-      </c>
-      <c r="G20">
-        <v>1.171123535069969</v>
-      </c>
-      <c r="H20">
-        <v>0.9689459826204558</v>
-      </c>
-      <c r="I20">
-        <v>1.116485875557196</v>
-      </c>
-      <c r="J20">
-        <v>20</v>
-      </c>
       <c r="K20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>4.91640047359668</v>
+      </c>
+      <c r="E21">
+        <v>0.8945705632253096</v>
+      </c>
+      <c r="F21">
+        <v>3.590400936867878</v>
+      </c>
+      <c r="G21">
+        <v>1.184389731466617</v>
+      </c>
+      <c r="H21">
+        <v>0.9672680617963353</v>
+      </c>
+      <c r="I21">
+        <v>1.172120436544416</v>
+      </c>
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>4.873160874861124</v>
-      </c>
-      <c r="E21">
-        <v>0.8964169057403106</v>
-      </c>
-      <c r="F21">
-        <v>3.682377491749175</v>
-      </c>
-      <c r="G21">
-        <v>1.15881468278028</v>
-      </c>
-      <c r="H21">
-        <v>0.9713430789033272</v>
-      </c>
-      <c r="I21">
-        <v>1.184766664141595</v>
-      </c>
-      <c r="J21">
-        <v>17</v>
-      </c>
       <c r="K21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
       <c r="D22">
-        <v>4.943492097928734</v>
+        <v>4.994278793469089</v>
       </c>
       <c r="E22">
-        <v>0.8934054326190729</v>
+        <v>0.8912039953269825</v>
       </c>
       <c r="F22">
-        <v>3.502673333333334</v>
+        <v>3.578732194187161</v>
       </c>
       <c r="G22">
-        <v>1.175539116067323</v>
+        <v>1.203151075839623</v>
       </c>
       <c r="H22">
-        <v>0.9680798946027122</v>
+        <v>0.9636279089232292</v>
       </c>
       <c r="I22">
-        <v>1.126948719953158</v>
+        <v>1.168311064832081</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -1333,48 +1333,48 @@
         <v>21</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>5.036384192369852</v>
+      </c>
+      <c r="E23">
+        <v>0.8893618036833084</v>
+      </c>
+      <c r="F23">
+        <v>3.545483232194186</v>
+      </c>
+      <c r="G23">
+        <v>1.213294513577291</v>
+      </c>
+      <c r="H23">
+        <v>0.9616360111189806</v>
+      </c>
+      <c r="I23">
+        <v>1.157456625862417</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23">
         <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>4.981956170890258</v>
-      </c>
-      <c r="E23">
-        <v>0.8917402081543244</v>
-      </c>
-      <c r="F23">
-        <v>3.591671617161716</v>
-      </c>
-      <c r="G23">
-        <v>1.184685691288608</v>
-      </c>
-      <c r="H23">
-        <v>0.966275483900174</v>
-      </c>
-      <c r="I23">
-        <v>1.15558299226281</v>
-      </c>
-      <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>22</v>
       </c>
       <c r="M23">
         <v>66</v>
@@ -1382,31 +1382,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>5.0229530716529</v>
+        <v>5.026593176953157</v>
       </c>
       <c r="E24">
-        <v>0.8899511207309287</v>
+        <v>0.8897915593512149</v>
       </c>
       <c r="F24">
-        <v>3.568590693069309</v>
+        <v>3.568806398381773</v>
       </c>
       <c r="G24">
-        <v>1.194434561020636</v>
+        <v>1.210935800493919</v>
       </c>
       <c r="H24">
-        <v>0.9643368572688152</v>
+        <v>0.9621006909877694</v>
       </c>
       <c r="I24">
-        <v>1.148156944959529</v>
+        <v>1.165070694656985</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1415,51 +1415,51 @@
         <v>23</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25">
-        <v>5.045197602583666</v>
+        <v>5.013502286086093</v>
       </c>
       <c r="E25">
-        <v>0.8889742427033925</v>
+        <v>0.8903648494316494</v>
       </c>
       <c r="F25">
-        <v>3.843129636963698</v>
+        <v>3.696237038219954</v>
       </c>
       <c r="G25">
-        <v>1.199724205609861</v>
+        <v>1.207782128045557</v>
       </c>
       <c r="H25">
-        <v>0.9632783278001007</v>
+        <v>0.9627205696287005</v>
       </c>
       <c r="I25">
-        <v>1.236486995168534</v>
+        <v>1.206671635560973</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1467,28 +1467,28 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26">
-        <v>5.206613356833192</v>
+        <v>5.221662299217236</v>
       </c>
       <c r="E26">
-        <v>0.8817562923283285</v>
+        <v>0.8810717727647117</v>
       </c>
       <c r="F26">
-        <v>3.6418201320132</v>
+        <v>3.653107500266155</v>
       </c>
       <c r="G26">
-        <v>1.238108111017403</v>
+        <v>1.257929097027951</v>
       </c>
       <c r="H26">
-        <v>0.9554570717575276</v>
+        <v>0.9526722887828107</v>
       </c>
       <c r="I26">
-        <v>1.171717755411177</v>
+        <v>1.192591588863329</v>
       </c>
       <c r="J26">
         <v>26</v>
@@ -1505,31 +1505,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27">
-        <v>5.09041883981841</v>
+        <v>5.180200093356622</v>
       </c>
       <c r="E27">
-        <v>0.8869750254532108</v>
+        <v>0.8829529550935902</v>
       </c>
       <c r="F27">
-        <v>3.820564653465348</v>
+        <v>3.947299478334931</v>
       </c>
       <c r="G27">
-        <v>1.210477602640409</v>
+        <v>1.24794060826895</v>
       </c>
       <c r="H27">
-        <v>0.96111200783586</v>
+        <v>0.9547063458599622</v>
       </c>
       <c r="I27">
-        <v>1.229226946386014</v>
+        <v>1.288633350166637</v>
       </c>
       <c r="J27">
         <v>25</v>
@@ -1538,10 +1538,10 @@
         <v>25</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1549,28 +1549,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.24454794655984</v>
+        <v>5.306765476329836</v>
       </c>
       <c r="E28">
-        <v>0.8800270043399964</v>
+        <v>0.877163573680062</v>
       </c>
       <c r="F28">
-        <v>3.825792343234324</v>
+        <v>3.872641594804642</v>
       </c>
       <c r="G28">
-        <v>1.247128777621548</v>
+        <v>1.278430951917248</v>
       </c>
       <c r="H28">
-        <v>0.953583242841383</v>
+        <v>0.9484464889307636</v>
       </c>
       <c r="I28">
-        <v>1.230908901205322</v>
+        <v>1.264260576046501</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.587609485683235</v>
+        <v>5.661642607538155</v>
       </c>
       <c r="E29">
-        <v>0.8638180731794863</v>
+        <v>0.8601854772216768</v>
       </c>
       <c r="F29">
-        <v>4.207230231023104</v>
+        <v>4.27013100180986</v>
       </c>
       <c r="G29">
-        <v>1.328707194349833</v>
+        <v>1.363922935817407</v>
       </c>
       <c r="H29">
-        <v>0.9360195032483871</v>
+        <v>0.9300886632550742</v>
       </c>
       <c r="I29">
-        <v>1.353632574947435</v>
+        <v>1.394024762679979</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.760418094045898</v>
+        <v>6.55165154157979</v>
       </c>
       <c r="E30">
-        <v>0.8006508015957432</v>
+        <v>0.8127727905217916</v>
       </c>
       <c r="F30">
-        <v>4.519709966996699</v>
+        <v>4.444482061109335</v>
       </c>
       <c r="G30">
-        <v>1.607595552514386</v>
+        <v>1.578331312037684</v>
       </c>
       <c r="H30">
-        <v>0.8675724540314789</v>
+        <v>0.8788229728176344</v>
       </c>
       <c r="I30">
-        <v>1.454169680453538</v>
+        <v>1.450943319501758</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>12.43976941970702</v>
+        <v>12.42115487383943</v>
       </c>
       <c r="E31">
-        <v>0.3250182297194698</v>
+        <v>0.3270367685074452</v>
       </c>
       <c r="F31">
-        <v>9.692229190947659</v>
+        <v>9.639919626317463</v>
       </c>
       <c r="G31">
-        <v>2.958118523917688</v>
+        <v>2.99232911650289</v>
       </c>
       <c r="H31">
-        <v>0.3521845760982081</v>
+        <v>0.3536134925676744</v>
       </c>
       <c r="I31">
-        <v>3.118373950629452</v>
+        <v>3.14704318524082</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1716,25 +1716,25 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>12.53279913707926</v>
+        <v>12.51537190011961</v>
       </c>
       <c r="E32">
-        <v>0.3148848970979293</v>
+        <v>0.3167889189976889</v>
       </c>
       <c r="F32">
-        <v>9.778655080622341</v>
+        <v>9.775127823150967</v>
       </c>
       <c r="G32">
-        <v>2.980240552144166</v>
+        <v>3.015026551151443</v>
       </c>
       <c r="H32">
-        <v>0.3412042582961584</v>
+        <v>0.3425328490272208</v>
       </c>
       <c r="I32">
-        <v>3.146180581871026</v>
+        <v>3.191183183386855</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1751,31 +1751,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>12.58037617416421</v>
+        <v>12.53039012132601</v>
       </c>
       <c r="E33">
-        <v>0.3096733531610516</v>
+        <v>0.3151482531822557</v>
       </c>
       <c r="F33">
-        <v>9.761599956624227</v>
+        <v>9.777637395628952</v>
       </c>
       <c r="G33">
-        <v>2.991554147273282</v>
+        <v>3.018644528791238</v>
       </c>
       <c r="H33">
-        <v>0.3355571123074221</v>
+        <v>0.3407588540976001</v>
       </c>
       <c r="I33">
-        <v>3.140693273084504</v>
+        <v>3.192002457122618</v>
       </c>
       <c r="J33">
         <v>33</v>
@@ -1784,130 +1784,130 @@
         <v>33</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>12.57483293761384</v>
+        <v>12.57374602436615</v>
       </c>
       <c r="E34">
-        <v>0.3102815704017357</v>
+        <v>0.3104007977033132</v>
       </c>
       <c r="F34">
-        <v>9.847552806223471</v>
+        <v>9.73350491551458</v>
       </c>
       <c r="G34">
-        <v>2.990235991753763</v>
+        <v>3.02908922031606</v>
       </c>
       <c r="H34">
-        <v>0.3362161668203669</v>
+        <v>0.3356255954723389</v>
       </c>
       <c r="I34">
-        <v>3.168347708601051</v>
+        <v>3.177594990444935</v>
       </c>
       <c r="J34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>12.59348435576538</v>
+        <v>12.52142210484779</v>
       </c>
       <c r="E35">
-        <v>0.3082340255588539</v>
+        <v>0.3161282009504776</v>
       </c>
       <c r="F35">
-        <v>9.809235738802442</v>
+        <v>9.874036868640772</v>
       </c>
       <c r="G35">
-        <v>2.994671211062894</v>
+        <v>3.016484080982832</v>
       </c>
       <c r="H35">
-        <v>0.3339974798465477</v>
+        <v>0.3418184375641207</v>
       </c>
       <c r="I35">
-        <v>3.156019590625689</v>
+        <v>3.223472979322246</v>
       </c>
       <c r="J35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>12.58071924341434</v>
+        <v>12.6079789542649</v>
       </c>
       <c r="E36">
-        <v>0.3096357019698641</v>
+        <v>0.3066407190464375</v>
       </c>
       <c r="F36">
-        <v>9.932727404997634</v>
+        <v>9.820744327842911</v>
       </c>
       <c r="G36">
-        <v>2.99163572752365</v>
+        <v>3.037336134062781</v>
       </c>
       <c r="H36">
-        <v>0.3355163140764447</v>
+        <v>0.3315599530913456</v>
       </c>
       <c r="I36">
-        <v>3.195751750007824</v>
+        <v>3.206075123962103</v>
       </c>
       <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
         <v>34</v>
-      </c>
-      <c r="K36">
-        <v>34</v>
-      </c>
-      <c r="L36">
-        <v>36</v>
       </c>
       <c r="M36">
         <v>104</v>
@@ -1924,22 +1924,22 @@
         <v>17</v>
       </c>
       <c r="D37">
-        <v>12.62666433272181</v>
+        <v>12.62916984189829</v>
       </c>
       <c r="E37">
-        <v>0.304584040341744</v>
+        <v>0.304308030163309</v>
       </c>
       <c r="F37">
-        <v>9.866027863272036</v>
+        <v>9.849443114933603</v>
       </c>
       <c r="G37">
-        <v>3.002561253164677</v>
+        <v>3.042441143276015</v>
       </c>
       <c r="H37">
-        <v>0.330042414010511</v>
+        <v>0.3290376976678913</v>
       </c>
       <c r="I37">
-        <v>3.174291866080369</v>
+        <v>3.215444115181892</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>12.86264897662483</v>
+        <v>12.90872478564314</v>
       </c>
       <c r="E38">
-        <v>0.2783473371884484</v>
+        <v>0.2731679554429374</v>
       </c>
       <c r="F38">
-        <v>9.968910731730309</v>
+        <v>10.01588151434958</v>
       </c>
       <c r="G38">
-        <v>3.058677288995999</v>
+        <v>3.109787570103995</v>
       </c>
       <c r="H38">
-        <v>0.3016127404311758</v>
+        <v>0.2953670170562148</v>
       </c>
       <c r="I38">
-        <v>3.207393359105932</v>
+        <v>3.269779509142489</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/variable_drop_impact.xlsx
+++ b/variable_drop_impact.xlsx
@@ -52,16 +52,16 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>None dropped</t>
+  </si>
+  <si>
     <t>Superplasticizer</t>
   </si>
   <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
     <t>Fine Aggregate</t>
-  </si>
-  <si>
-    <t>None dropped</t>
-  </si>
-  <si>
-    <t>Coarse Aggregate</t>
   </si>
   <si>
     <t>Fly Ash</t>
@@ -483,160 +483,160 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
       <c r="D2">
-        <v>4.074513545718668</v>
+        <v>4.109703788210825</v>
       </c>
       <c r="E2">
-        <v>0.9275866040948448</v>
+        <v>0.926330380934695</v>
       </c>
       <c r="F2">
-        <v>2.932129937187266</v>
+        <v>2.937908027567462</v>
       </c>
       <c r="G2">
-        <v>0.9815742289887992</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1.002967159411311</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.9572216257772661</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>4.136015792628333</v>
+        <v>4.114686268934191</v>
       </c>
       <c r="E3">
-        <v>0.9253840350945257</v>
+        <v>0.9261516430107452</v>
       </c>
       <c r="F3">
-        <v>2.98428829979772</v>
+        <v>2.938381018248882</v>
       </c>
       <c r="G3">
-        <v>0.9963904812638387</v>
+        <v>1.001212369791141</v>
       </c>
       <c r="H3">
-        <v>1.000585598095197</v>
+        <v>0.9998070473260636</v>
       </c>
       <c r="I3">
-        <v>0.9742492179117924</v>
+        <v>1.000160995741521</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="D4">
-        <v>4.150998900935043</v>
+        <v>4.098288034523349</v>
       </c>
       <c r="E4">
-        <v>0.9248424491179648</v>
+        <v>0.9267390849340437</v>
       </c>
       <c r="F4">
-        <v>3.06316725220909</v>
+        <v>3.05227601436614</v>
       </c>
       <c r="G4">
+        <v>0.9972222441626514</v>
+      </c>
+      <c r="H4">
+        <v>1.000441207594785</v>
+      </c>
+      <c r="I4">
+        <v>1.038928375471772</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>4.177926177427745</v>
+        <v>4.129874111153492</v>
       </c>
       <c r="E5">
-        <v>0.9238642015699994</v>
+        <v>0.9256054690858185</v>
       </c>
       <c r="F5">
-        <v>3.048609762589161</v>
+        <v>3.014491700640652</v>
       </c>
       <c r="G5">
-        <v>1.006486938959833</v>
+        <v>1.004907974876566</v>
       </c>
       <c r="H5">
-        <v>0.9989422549225564</v>
+        <v>0.9992174370356449</v>
       </c>
       <c r="I5">
-        <v>0.995247569453013</v>
+        <v>1.026067416799497</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>15</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -653,31 +653,31 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>4.172289809404364</v>
+        <v>4.146559813428365</v>
       </c>
       <c r="E6">
-        <v>0.9240694899815114</v>
+        <v>0.9250031104721455</v>
       </c>
       <c r="F6">
-        <v>3.083328116682634</v>
+        <v>2.993409192389825</v>
       </c>
       <c r="G6">
-        <v>1.005129104819692</v>
+        <v>1.008968049065547</v>
       </c>
       <c r="H6">
-        <v>0.9991642261477178</v>
+        <v>0.9985671737752893</v>
       </c>
       <c r="I6">
-        <v>1.006581705409329</v>
+        <v>1.018891389485843</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>16</v>
@@ -685,122 +685,122 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>4.169446012739839</v>
+        <v>4.148683420728588</v>
       </c>
       <c r="E7">
-        <v>0.9241729618651335</v>
+        <v>0.9249262734160058</v>
       </c>
       <c r="F7">
-        <v>3.094712338975831</v>
+        <v>2.971582945059212</v>
       </c>
       <c r="G7">
-        <v>1.004444017511217</v>
+        <v>1.00948477908057</v>
       </c>
       <c r="H7">
-        <v>0.9992761066996116</v>
+        <v>0.9984842259871985</v>
       </c>
       <c r="I7">
-        <v>1.010298192742819</v>
+        <v>1.011462209564005</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>4.232057476454018</v>
+        <v>4.132525642242023</v>
       </c>
       <c r="E8">
-        <v>0.9218785136959353</v>
+        <v>0.9255099103689551</v>
       </c>
       <c r="F8">
-        <v>3.052427765357179</v>
+        <v>3.030758881770527</v>
       </c>
       <c r="G8">
-        <v>1.019527486625139</v>
+        <v>1.00555316275997</v>
       </c>
       <c r="H8">
-        <v>0.9967951996311846</v>
+        <v>0.9991142786821782</v>
       </c>
       <c r="I8">
-        <v>0.9964939926658704</v>
+        <v>1.031604411483209</v>
       </c>
       <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
       <c r="M8">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>4.208276054133758</v>
+        <v>4.154405810903205</v>
       </c>
       <c r="E9">
-        <v>0.9227540311667636</v>
+        <v>0.9247190281808457</v>
       </c>
       <c r="F9">
-        <v>3.091184552326198</v>
+        <v>3.000288147932443</v>
       </c>
       <c r="G9">
-        <v>1.013798402400399</v>
+        <v>1.01087718847782</v>
       </c>
       <c r="H9">
-        <v>0.9977418662463072</v>
+        <v>0.9982604988597876</v>
       </c>
       <c r="I9">
-        <v>1.009146513334165</v>
+        <v>1.02123283635146</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>21</v>
@@ -808,31 +808,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>4.253470548780794</v>
+        <v>4.195255872434903</v>
       </c>
       <c r="E10">
-        <v>0.9210859663082654</v>
+        <v>0.9232312815458877</v>
       </c>
       <c r="F10">
-        <v>3.112090359842434</v>
+        <v>3.00243612890701</v>
       </c>
       <c r="G10">
-        <v>1.024686021435146</v>
+        <v>1.020817092577206</v>
       </c>
       <c r="H10">
-        <v>0.9959382456835951</v>
+        <v>0.99665443404147</v>
       </c>
       <c r="I10">
-        <v>1.015971412464684</v>
+        <v>1.021963962361673</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -841,39 +841,39 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>4.270911609905506</v>
+        <v>4.204742218989396</v>
       </c>
       <c r="E11">
-        <v>0.9204374764353613</v>
+        <v>0.9228837089268889</v>
       </c>
       <c r="F11">
-        <v>3.148857234110505</v>
+        <v>3.035231556979227</v>
       </c>
       <c r="G11">
-        <v>1.0288876754324</v>
+        <v>1.023125372454141</v>
       </c>
       <c r="H11">
-        <v>0.9952370561204187</v>
+        <v>0.9962792195109391</v>
       </c>
       <c r="I11">
-        <v>1.027974307259787</v>
+        <v>1.033126812854093</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -882,51 +882,51 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>4.409955000856601</v>
+        <v>4.234245179891376</v>
       </c>
       <c r="E12">
-        <v>0.9151726893022352</v>
+        <v>0.921797725181611</v>
       </c>
       <c r="F12">
-        <v>3.123906872138826</v>
+        <v>3.076526742380116</v>
       </c>
       <c r="G12">
-        <v>1.06238404444367</v>
+        <v>1.03030422582713</v>
       </c>
       <c r="H12">
-        <v>0.9895444247558578</v>
+        <v>0.9951068691620473</v>
       </c>
       <c r="I12">
-        <v>1.019829024969477</v>
+        <v>1.047182795891479</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -940,63 +940,63 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>4.381708312575835</v>
+        <v>4.315636519948002</v>
       </c>
       <c r="E13">
-        <v>0.9162558826094932</v>
+        <v>0.9187623967679036</v>
       </c>
       <c r="F13">
-        <v>3.271613808155007</v>
+        <v>3.197033440108715</v>
       </c>
       <c r="G13">
-        <v>1.055579251439653</v>
+        <v>1.050108898925494</v>
       </c>
       <c r="H13">
-        <v>0.9907156440357374</v>
+        <v>0.9918301457854</v>
       </c>
       <c r="I13">
-        <v>1.068049355057446</v>
+        <v>1.088200655061283</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13">
         <v>13</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>4.443823193875248</v>
+        <v>4.3333868559981</v>
       </c>
       <c r="E14">
-        <v>0.9138647486245854</v>
+        <v>0.9180927573145483</v>
       </c>
       <c r="F14">
-        <v>3.229221787501328</v>
+        <v>3.222723209085612</v>
       </c>
       <c r="G14">
-        <v>1.070543090935111</v>
+        <v>1.054428026766536</v>
       </c>
       <c r="H14">
-        <v>0.9881301939548202</v>
+        <v>0.9911072509444906</v>
       </c>
       <c r="I14">
-        <v>1.054210077876905</v>
+        <v>1.096944893729016</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1005,39 +1005,39 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>4.457431238373093</v>
+        <v>4.35330217963346</v>
       </c>
       <c r="E15">
-        <v>0.9133364076189007</v>
+        <v>0.9173381708233168</v>
       </c>
       <c r="F15">
-        <v>3.336762269775364</v>
+        <v>3.088795670743543</v>
       </c>
       <c r="G15">
-        <v>1.073821348728621</v>
+        <v>1.059273953544152</v>
       </c>
       <c r="H15">
-        <v>0.9875589171863407</v>
+        <v>0.9902926533594798</v>
       </c>
       <c r="I15">
-        <v>1.089317688209472</v>
+        <v>1.051358872286078</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1046,39 +1046,39 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>4.595024933011463</v>
+        <v>4.523079835118286</v>
       </c>
       <c r="E16">
-        <v>0.9079034996796789</v>
+        <v>0.9107648640736455</v>
       </c>
       <c r="F16">
-        <v>3.394653412115403</v>
+        <v>3.350871287128711</v>
       </c>
       <c r="G16">
-        <v>1.106968477388997</v>
+        <v>1.100585362889968</v>
       </c>
       <c r="H16">
-        <v>0.9816845026367023</v>
+        <v>0.9831965817148917</v>
       </c>
       <c r="I16">
-        <v>1.108216800655352</v>
+        <v>1.140563712575841</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1095,31 +1095,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>4.646282790358989</v>
+        <v>4.581371335864669</v>
       </c>
       <c r="E17">
-        <v>0.9058373524619088</v>
+        <v>0.9084499952261674</v>
       </c>
       <c r="F17">
-        <v>3.516409507079738</v>
+        <v>3.364719908755577</v>
       </c>
       <c r="G17">
-        <v>1.119316796087896</v>
+        <v>1.114769232032459</v>
       </c>
       <c r="H17">
-        <v>0.9794504494531134</v>
+        <v>0.9806976149368158</v>
       </c>
       <c r="I17">
-        <v>1.14796523256893</v>
+        <v>1.145277482202705</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1128,39 +1128,39 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>4.791905104395818</v>
+        <v>4.773978649610525</v>
       </c>
       <c r="E18">
-        <v>0.8998424250383819</v>
+        <v>0.900590399710035</v>
       </c>
       <c r="F18">
-        <v>3.448881773661236</v>
+        <v>3.49830976994758</v>
       </c>
       <c r="G18">
-        <v>1.154398066286263</v>
+        <v>1.16163570311448</v>
       </c>
       <c r="H18">
-        <v>0.9729683427664617</v>
+        <v>0.9722129579743594</v>
       </c>
       <c r="I18">
-        <v>1.125920163573823</v>
+        <v>1.190748565687443</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -1169,80 +1169,80 @@
         <v>17</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>4.830885909166219</v>
+        <v>4.866652897538191</v>
       </c>
       <c r="E19">
-        <v>0.8982062896518123</v>
+        <v>0.8966933859606275</v>
       </c>
       <c r="F19">
-        <v>3.563577025444479</v>
+        <v>3.382497913026595</v>
       </c>
       <c r="G19">
-        <v>1.163788770957763</v>
+        <v>1.18418580713743</v>
       </c>
       <c r="H19">
-        <v>0.9711992464321293</v>
+        <v>0.9680060207631721</v>
       </c>
       <c r="I19">
-        <v>1.163363516267192</v>
+        <v>1.151328728226814</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>4.897347141976547</v>
+        <v>4.8511852642219</v>
       </c>
       <c r="E20">
-        <v>0.8953861556699229</v>
+        <v>0.8973490191237188</v>
       </c>
       <c r="F20">
-        <v>3.672919674225486</v>
+        <v>3.504599980586292</v>
       </c>
       <c r="G20">
-        <v>1.179799672043609</v>
+        <v>1.180422121452671</v>
       </c>
       <c r="H20">
-        <v>0.9681499335631331</v>
+        <v>0.9687137954152674</v>
       </c>
       <c r="I20">
-        <v>1.199059460947376</v>
+        <v>1.192889616591586</v>
       </c>
       <c r="J20">
         <v>19</v>
@@ -1251,244 +1251,244 @@
         <v>19</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>4.91640047359668</v>
+        <v>4.911641884712092</v>
       </c>
       <c r="E21">
-        <v>0.8945705632253096</v>
+        <v>0.8947745549680192</v>
       </c>
       <c r="F21">
-        <v>3.590400936867878</v>
+        <v>3.439302368472138</v>
       </c>
       <c r="G21">
-        <v>1.184389731466617</v>
+        <v>1.195132821689417</v>
       </c>
       <c r="H21">
-        <v>0.9672680617963353</v>
+        <v>0.9659345881165691</v>
       </c>
       <c r="I21">
-        <v>1.172120436544416</v>
+        <v>1.170663729497285</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>4.845224709249851</v>
+      </c>
+      <c r="E22">
+        <v>0.89760111459853</v>
+      </c>
+      <c r="F22">
+        <v>3.614438652688796</v>
+      </c>
+      <c r="G22">
+        <v>1.178971760239498</v>
+      </c>
+      <c r="H22">
+        <v>0.9689859396523557</v>
+      </c>
+      <c r="I22">
+        <v>1.230276311842712</v>
+      </c>
+      <c r="J22">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>4.994278793469089</v>
-      </c>
-      <c r="E22">
-        <v>0.8912039953269825</v>
-      </c>
-      <c r="F22">
-        <v>3.578732194187161</v>
-      </c>
-      <c r="G22">
-        <v>1.203151075839623</v>
-      </c>
-      <c r="H22">
-        <v>0.9636279089232292</v>
-      </c>
-      <c r="I22">
-        <v>1.168311064832081</v>
-      </c>
-      <c r="J22">
-        <v>21</v>
-      </c>
       <c r="K22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
       <c r="D23">
-        <v>5.036384192369852</v>
+        <v>4.938117526225039</v>
       </c>
       <c r="E23">
-        <v>0.8893618036833084</v>
+        <v>0.8936370861568312</v>
       </c>
       <c r="F23">
-        <v>3.545483232194186</v>
+        <v>3.481724665113571</v>
       </c>
       <c r="G23">
-        <v>1.213294513577291</v>
+        <v>1.201575047912362</v>
       </c>
       <c r="H23">
-        <v>0.9616360111189806</v>
+        <v>0.9647066581742949</v>
       </c>
       <c r="I23">
-        <v>1.157456625862417</v>
+        <v>1.185103356688936</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>5.026593176953157</v>
+        <v>5.020896808613433</v>
       </c>
       <c r="E24">
-        <v>0.8897915593512149</v>
+        <v>0.8900412044411752</v>
       </c>
       <c r="F24">
-        <v>3.568806398381773</v>
+        <v>3.590231023102308</v>
       </c>
       <c r="G24">
-        <v>1.210935800493919</v>
+        <v>1.221717444214951</v>
       </c>
       <c r="H24">
-        <v>0.9621006909877694</v>
+        <v>0.9608248015606452</v>
       </c>
       <c r="I24">
-        <v>1.165070694656985</v>
+        <v>1.222036561190433</v>
       </c>
       <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
         <v>23</v>
       </c>
-      <c r="K24">
-        <v>23</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
       <c r="M24">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25">
-        <v>5.013502286086093</v>
+        <v>4.974427959947557</v>
       </c>
       <c r="E25">
-        <v>0.8903648494316494</v>
+        <v>0.8920671426950547</v>
       </c>
       <c r="F25">
-        <v>3.696237038219954</v>
+        <v>3.744296689963112</v>
       </c>
       <c r="G25">
-        <v>1.207782128045557</v>
+        <v>1.210410340087599</v>
       </c>
       <c r="H25">
-        <v>0.9627205696287005</v>
+        <v>0.9630118595429552</v>
       </c>
       <c r="I25">
-        <v>1.206671635560973</v>
+        <v>1.274477163624256</v>
       </c>
       <c r="J25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>5.221662299217236</v>
+        <v>5.072562325942697</v>
       </c>
       <c r="E26">
-        <v>0.8810717727647117</v>
+        <v>0.8877665878941858</v>
       </c>
       <c r="F26">
-        <v>3.653107500266155</v>
+        <v>3.573656911279362</v>
       </c>
       <c r="G26">
-        <v>1.257929097027951</v>
+        <v>1.234289035743634</v>
       </c>
       <c r="H26">
-        <v>0.9526722887828107</v>
+        <v>0.9583692882861111</v>
       </c>
       <c r="I26">
-        <v>1.192591588863329</v>
+        <v>1.21639509397382</v>
       </c>
       <c r="J26">
         <v>26</v>
@@ -1497,80 +1497,80 @@
         <v>26</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27">
-        <v>5.180200093356622</v>
+        <v>5.015742832104184</v>
       </c>
       <c r="E27">
-        <v>0.8829529550935902</v>
+        <v>0.8902668351194349</v>
       </c>
       <c r="F27">
-        <v>3.947299478334931</v>
+        <v>3.645204499126383</v>
       </c>
       <c r="G27">
-        <v>1.24794060826895</v>
+        <v>1.22046334494774</v>
       </c>
       <c r="H27">
-        <v>0.9547063458599622</v>
+        <v>0.9610683762969419</v>
       </c>
       <c r="I27">
-        <v>1.288633350166637</v>
+        <v>1.240748336885328</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>5.306765476329836</v>
+        <v>5.216332065517791</v>
       </c>
       <c r="E28">
-        <v>0.877163573680062</v>
+        <v>0.8813144509236408</v>
       </c>
       <c r="F28">
-        <v>3.872641594804642</v>
+        <v>3.597404072024848</v>
       </c>
       <c r="G28">
-        <v>1.278430951917248</v>
+        <v>1.269272028918839</v>
       </c>
       <c r="H28">
-        <v>0.9484464889307636</v>
+        <v>0.9514040228653282</v>
       </c>
       <c r="I28">
-        <v>1.264260576046501</v>
+        <v>1.224478111046736</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1579,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.661642607538155</v>
+        <v>5.611369745017197</v>
       </c>
       <c r="E29">
-        <v>0.8601854772216768</v>
+        <v>0.8626574346104094</v>
       </c>
       <c r="F29">
-        <v>4.27013100180986</v>
+        <v>4.175264608813819</v>
       </c>
       <c r="G29">
-        <v>1.363922935817407</v>
+        <v>1.36539518033248</v>
       </c>
       <c r="H29">
-        <v>0.9300886632550742</v>
+        <v>0.9312632429694926</v>
       </c>
       <c r="I29">
-        <v>1.394024762679979</v>
+        <v>1.421169270663271</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.55165154157979</v>
+        <v>6.629956733617683</v>
       </c>
       <c r="E30">
-        <v>0.8127727905217916</v>
+        <v>0.8082705743555374</v>
       </c>
       <c r="F30">
-        <v>4.444482061109335</v>
+        <v>4.351499174917489</v>
       </c>
       <c r="G30">
-        <v>1.578331312037684</v>
+        <v>1.613244427162002</v>
       </c>
       <c r="H30">
-        <v>0.8788229728176344</v>
+        <v>0.8725510800368744</v>
       </c>
       <c r="I30">
-        <v>1.450943319501758</v>
+        <v>1.481155684277992</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>12.42115487383943</v>
+        <v>12.52814161488502</v>
       </c>
       <c r="E31">
-        <v>0.3270367685074452</v>
+        <v>0.3153940165441962</v>
       </c>
       <c r="F31">
-        <v>9.639919626317463</v>
+        <v>9.671501929583707</v>
       </c>
       <c r="G31">
-        <v>2.99232911650289</v>
+        <v>3.048429341993816</v>
       </c>
       <c r="H31">
-        <v>0.3536134925676744</v>
+        <v>0.3404768137108428</v>
       </c>
       <c r="I31">
-        <v>3.14704318524082</v>
+        <v>3.291968924429382</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1716,25 +1716,25 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>12.51537190011961</v>
+        <v>12.5858601251804</v>
       </c>
       <c r="E32">
-        <v>0.3167889189976889</v>
+        <v>0.3090713771015164</v>
       </c>
       <c r="F32">
-        <v>9.775127823150967</v>
+        <v>9.808910877915514</v>
       </c>
       <c r="G32">
-        <v>3.015026551151443</v>
+        <v>3.062473787352859</v>
       </c>
       <c r="H32">
-        <v>0.3425328490272208</v>
+        <v>0.3336513445555507</v>
       </c>
       <c r="I32">
-        <v>3.191183183386855</v>
+        <v>3.338739942120355</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,48 +1743,48 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>12.53039012132601</v>
+        <v>12.71646996146258</v>
       </c>
       <c r="E33">
-        <v>0.3151482531822557</v>
+        <v>0.2946567376185619</v>
       </c>
       <c r="F33">
-        <v>9.777637395628952</v>
+        <v>9.909970389938143</v>
       </c>
       <c r="G33">
-        <v>3.018644528791238</v>
+        <v>3.094254626803346</v>
       </c>
       <c r="H33">
-        <v>0.3407588540976001</v>
+        <v>0.3180903311421617</v>
       </c>
       <c r="I33">
-        <v>3.192002457122618</v>
+        <v>3.373138402206358</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M33">
         <v>99</v>
@@ -1792,113 +1792,113 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>12.57374602436615</v>
+        <v>12.72181853119443</v>
       </c>
       <c r="E34">
-        <v>0.3104007977033132</v>
+        <v>0.2940632755946546</v>
       </c>
       <c r="F34">
-        <v>9.73350491551458</v>
+        <v>9.889664680228515</v>
       </c>
       <c r="G34">
-        <v>3.02908922031606</v>
+        <v>3.095556075765967</v>
       </c>
       <c r="H34">
-        <v>0.3356255954723389</v>
+        <v>0.3174496720035631</v>
       </c>
       <c r="I34">
-        <v>3.177594990444935</v>
+        <v>3.366226780222589</v>
       </c>
       <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34">
         <v>34</v>
       </c>
-      <c r="K34">
-        <v>34</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
       <c r="M34">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>12.52142210484779</v>
+        <v>12.735775144051</v>
       </c>
       <c r="E35">
-        <v>0.3161282009504776</v>
+        <v>0.2925135144611883</v>
       </c>
       <c r="F35">
-        <v>9.874036868640772</v>
+        <v>9.883422261280742</v>
       </c>
       <c r="G35">
-        <v>3.016484080982832</v>
+        <v>3.098952090071574</v>
       </c>
       <c r="H35">
-        <v>0.3418184375641207</v>
+        <v>0.3157766607698146</v>
       </c>
       <c r="I35">
-        <v>3.223472979322246</v>
+        <v>3.364101996570685</v>
       </c>
       <c r="J35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>12.6079789542649</v>
+        <v>12.73752681368678</v>
       </c>
       <c r="E36">
-        <v>0.3066407190464375</v>
+        <v>0.2923188866814965</v>
       </c>
       <c r="F36">
-        <v>9.820744327842911</v>
+        <v>9.862696052084191</v>
       </c>
       <c r="G36">
-        <v>3.037336134062781</v>
+        <v>3.099378317781901</v>
       </c>
       <c r="H36">
-        <v>0.3315599530913456</v>
+        <v>0.3155665545445439</v>
       </c>
       <c r="I36">
-        <v>3.206075123962103</v>
+        <v>3.357047245706441</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,39 +1907,39 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>12.62916984189829</v>
+        <v>12.74617945882424</v>
       </c>
       <c r="E37">
-        <v>0.304308030163309</v>
+        <v>0.2913570997620341</v>
       </c>
       <c r="F37">
-        <v>9.849443114933603</v>
+        <v>10.02205322891532</v>
       </c>
       <c r="G37">
-        <v>3.042441143276015</v>
+        <v>3.10148373597829</v>
       </c>
       <c r="H37">
-        <v>0.3290376976678913</v>
+        <v>0.3145282782024768</v>
       </c>
       <c r="I37">
-        <v>3.215444115181892</v>
+        <v>3.411288963056276</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>12.90872478564314</v>
+        <v>13.05596551738194</v>
       </c>
       <c r="E38">
-        <v>0.2731679554429374</v>
+        <v>0.2564924695732697</v>
       </c>
       <c r="F38">
-        <v>10.01588151434958</v>
+        <v>10.08162395789999</v>
       </c>
       <c r="G38">
-        <v>3.109787570103995</v>
+        <v>3.176862905505387</v>
       </c>
       <c r="H38">
-        <v>0.2953670170562148</v>
+        <v>0.2768909180269583</v>
       </c>
       <c r="I38">
-        <v>3.269779509142489</v>
+        <v>3.431565543679527</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/variable_drop_impact.xlsx
+++ b/variable_drop_impact.xlsx
@@ -55,16 +55,16 @@
     <t>None dropped</t>
   </si>
   <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
     <t>Superplasticizer</t>
   </si>
   <si>
-    <t>Coarse Aggregate</t>
-  </si>
-  <si>
     <t>Fine Aggregate</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -489,13 +489,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4.109703788210825</v>
+        <v>3.941525598096856</v>
       </c>
       <c r="E2">
-        <v>0.926330380934695</v>
+        <v>0.9322364600108499</v>
       </c>
       <c r="F2">
-        <v>2.937908027567462</v>
+        <v>2.903739646545297</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -507,21 +507,21 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -530,34 +530,34 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>4.114686268934191</v>
+        <v>3.979203291602823</v>
       </c>
       <c r="E3">
-        <v>0.9261516430107452</v>
+        <v>0.9309347422206299</v>
       </c>
       <c r="F3">
-        <v>2.938381018248882</v>
+        <v>2.962178324284039</v>
       </c>
       <c r="G3">
-        <v>1.001212369791141</v>
+        <v>1.009559164990368</v>
       </c>
       <c r="H3">
-        <v>0.9998070473260636</v>
+        <v>0.998603661360547</v>
       </c>
       <c r="I3">
-        <v>1.000160995741521</v>
+        <v>1.020125315920892</v>
       </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
       <c r="M3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -571,63 +571,63 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4.098288034523349</v>
+        <v>4.086016885312109</v>
       </c>
       <c r="E4">
-        <v>0.9267390849340437</v>
+        <v>0.9271771457634289</v>
       </c>
       <c r="F4">
-        <v>3.05227601436614</v>
+        <v>2.993618066645372</v>
       </c>
       <c r="G4">
-        <v>0.9972222441626514</v>
+        <v>1.036658721000067</v>
       </c>
       <c r="H4">
-        <v>1.000441207594785</v>
+        <v>0.9945729281524109</v>
       </c>
       <c r="I4">
-        <v>1.038928375471772</v>
+        <v>1.030952644190056</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
         <v>10</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>4.129874111153492</v>
+        <v>4.087839013613473</v>
       </c>
       <c r="E5">
-        <v>0.9256054690858185</v>
+        <v>0.9271121816802925</v>
       </c>
       <c r="F5">
-        <v>3.014491700640652</v>
+        <v>2.906334557649311</v>
       </c>
       <c r="G5">
-        <v>1.004907974876566</v>
+        <v>1.037121011109826</v>
       </c>
       <c r="H5">
-        <v>0.9992174370356449</v>
+        <v>0.9945032418808231</v>
       </c>
       <c r="I5">
-        <v>1.026067416799497</v>
+        <v>1.000893644548023</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -636,162 +636,162 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>4.146559813428365</v>
+        <v>4.128538558512494</v>
       </c>
       <c r="E6">
-        <v>0.9250031104721455</v>
+        <v>0.9256535779356243</v>
       </c>
       <c r="F6">
-        <v>2.993409192389825</v>
+        <v>2.996406259980838</v>
       </c>
       <c r="G6">
-        <v>1.008968049065547</v>
+        <v>1.047446846598164</v>
       </c>
       <c r="H6">
-        <v>0.9985671737752893</v>
+        <v>0.9929386133694568</v>
       </c>
       <c r="I6">
-        <v>1.018891389485843</v>
+        <v>1.031912851947932</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>4.148683420728588</v>
+        <v>4.139954432559739</v>
       </c>
       <c r="E7">
-        <v>0.9249262734160058</v>
+        <v>0.9252418570352252</v>
       </c>
       <c r="F7">
-        <v>2.971582945059212</v>
+        <v>2.997062307037153</v>
       </c>
       <c r="G7">
-        <v>1.00948477908057</v>
+        <v>1.050343155086623</v>
       </c>
       <c r="H7">
-        <v>0.9984842259871985</v>
+        <v>0.9924969647984554</v>
       </c>
       <c r="I7">
-        <v>1.011462209564005</v>
+        <v>1.032138783724252</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4.187758100726136</v>
+      </c>
+      <c r="E8">
+        <v>0.9235054388278398</v>
+      </c>
+      <c r="F8">
+        <v>3.004527414031725</v>
+      </c>
+      <c r="G8">
+        <v>1.062471369651429</v>
+      </c>
+      <c r="H8">
+        <v>0.9906343277081133</v>
+      </c>
+      <c r="I8">
+        <v>1.034709643340903</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>21</v>
-      </c>
-      <c r="D8">
-        <v>4.132525642242023</v>
-      </c>
-      <c r="E8">
-        <v>0.9255099103689551</v>
-      </c>
-      <c r="F8">
-        <v>3.030758881770527</v>
-      </c>
-      <c r="G8">
-        <v>1.00555316275997</v>
-      </c>
-      <c r="H8">
-        <v>0.9991142786821782</v>
-      </c>
-      <c r="I8">
-        <v>1.031604411483209</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>4.154405810903205</v>
+        <v>4.190507118553326</v>
       </c>
       <c r="E9">
-        <v>0.9247190281808457</v>
+        <v>0.9234049774701644</v>
       </c>
       <c r="F9">
-        <v>3.000288147932443</v>
+        <v>3.079681571382943</v>
       </c>
       <c r="G9">
-        <v>1.01087718847782</v>
+        <v>1.063168819854092</v>
       </c>
       <c r="H9">
-        <v>0.9982604988597876</v>
+        <v>0.9905265638928317</v>
       </c>
       <c r="I9">
-        <v>1.02123283635146</v>
+        <v>1.060591494505016</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -800,39 +800,39 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>4.195255872434903</v>
+        <v>4.197804844242425</v>
       </c>
       <c r="E10">
-        <v>0.9232312815458877</v>
+        <v>0.923137966262416</v>
       </c>
       <c r="F10">
-        <v>3.00243612890701</v>
+        <v>3.023662887256467</v>
       </c>
       <c r="G10">
-        <v>1.020817092577206</v>
+        <v>1.065020317581931</v>
       </c>
       <c r="H10">
-        <v>0.99665443404147</v>
+        <v>0.9902401438489886</v>
       </c>
       <c r="I10">
-        <v>1.021963962361673</v>
+        <v>1.041299584435488</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -841,89 +841,89 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11">
-        <v>4.204742218989396</v>
+        <v>4.221222922852894</v>
       </c>
       <c r="E11">
-        <v>0.9228837089268889</v>
+        <v>0.9222780016424892</v>
       </c>
       <c r="F11">
-        <v>3.035231556979227</v>
+        <v>3.018277334185031</v>
       </c>
       <c r="G11">
-        <v>1.023125372454141</v>
+        <v>1.070961691810676</v>
       </c>
       <c r="H11">
-        <v>0.9962792195109391</v>
+        <v>0.9893176690726676</v>
       </c>
       <c r="I11">
-        <v>1.033126812854093</v>
+        <v>1.039444888861164</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>4.20605086020548</v>
+      </c>
+      <c r="E12">
+        <v>0.9228356996764044</v>
+      </c>
+      <c r="F12">
+        <v>3.188660811242412</v>
+      </c>
+      <c r="G12">
+        <v>1.067112404962269</v>
+      </c>
+      <c r="H12">
+        <v>0.989915905740979</v>
+      </c>
+      <c r="I12">
+        <v>1.098122145708241</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>4.234245179891376</v>
-      </c>
-      <c r="E12">
-        <v>0.921797725181611</v>
-      </c>
-      <c r="F12">
-        <v>3.076526742380116</v>
-      </c>
-      <c r="G12">
-        <v>1.03030422582713</v>
-      </c>
-      <c r="H12">
-        <v>0.9951068691620473</v>
-      </c>
-      <c r="I12">
-        <v>1.047182795891479</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
       </c>
       <c r="M12">
         <v>33</v>
@@ -931,31 +931,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
       <c r="D13">
-        <v>4.315636519948002</v>
+        <v>4.250138415020751</v>
       </c>
       <c r="E13">
-        <v>0.9187623967679036</v>
+        <v>0.9212095590852842</v>
       </c>
       <c r="F13">
-        <v>3.197033440108715</v>
+        <v>3.067500798466943</v>
       </c>
       <c r="G13">
-        <v>1.050108898925494</v>
+        <v>1.07829780861322</v>
       </c>
       <c r="H13">
-        <v>0.9918301457854</v>
+        <v>0.9881715622606765</v>
       </c>
       <c r="I13">
-        <v>1.088200655061283</v>
+        <v>1.05639663739016</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -964,39 +964,39 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>4.3333868559981</v>
+        <v>4.366680841679336</v>
       </c>
       <c r="E14">
-        <v>0.9180927573145483</v>
+        <v>0.9168293138793309</v>
       </c>
       <c r="F14">
-        <v>3.222723209085612</v>
+        <v>3.086942856382411</v>
       </c>
       <c r="G14">
-        <v>1.054428026766536</v>
+        <v>1.107865655823157</v>
       </c>
       <c r="H14">
-        <v>0.9911072509444906</v>
+        <v>0.9834729204526717</v>
       </c>
       <c r="I14">
-        <v>1.096944893729016</v>
+        <v>1.0630921611912</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1005,39 +1005,39 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
       <c r="D15">
-        <v>4.35330217963346</v>
+        <v>4.438348409591407</v>
       </c>
       <c r="E15">
-        <v>0.9173381708233168</v>
+        <v>0.9140768549177314</v>
       </c>
       <c r="F15">
-        <v>3.088795670743543</v>
+        <v>3.290907218141167</v>
       </c>
       <c r="G15">
-        <v>1.059273953544152</v>
+        <v>1.126048353392514</v>
       </c>
       <c r="H15">
-        <v>0.9902926533594798</v>
+        <v>0.980520387399451</v>
       </c>
       <c r="I15">
-        <v>1.051358872286078</v>
+        <v>1.133334120383864</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1046,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>4.523079835118286</v>
+        <v>4.523262127017604</v>
       </c>
       <c r="E16">
-        <v>0.9107648640736455</v>
+        <v>0.9107576711118562</v>
       </c>
       <c r="F16">
-        <v>3.350871287128711</v>
+        <v>3.346003140636641</v>
       </c>
       <c r="G16">
-        <v>1.100585362889968</v>
+        <v>1.147591716568234</v>
       </c>
       <c r="H16">
-        <v>0.9831965817148917</v>
+        <v>0.9769599347157655</v>
       </c>
       <c r="I16">
-        <v>1.140563712575841</v>
+        <v>1.152308246580414</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1098,28 +1098,28 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17">
-        <v>4.581371335864669</v>
+        <v>4.597656788536955</v>
       </c>
       <c r="E17">
-        <v>0.9084499952261674</v>
+        <v>0.9077979707212314</v>
       </c>
       <c r="F17">
-        <v>3.364719908755577</v>
+        <v>3.447983924198867</v>
       </c>
       <c r="G17">
-        <v>1.114769232032459</v>
+        <v>1.166466301971224</v>
       </c>
       <c r="H17">
-        <v>0.9806976149368158</v>
+        <v>0.9737850960159463</v>
       </c>
       <c r="I17">
-        <v>1.145277482202705</v>
+        <v>1.187428744963785</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1128,48 +1128,48 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>4.773978649610525</v>
+        <v>4.837702130368339</v>
       </c>
       <c r="E18">
-        <v>0.900590399710035</v>
+        <v>0.8979188318403685</v>
       </c>
       <c r="F18">
-        <v>3.49830976994758</v>
+        <v>3.387953582455021</v>
       </c>
       <c r="G18">
-        <v>1.16163570311448</v>
+        <v>1.227367934056853</v>
       </c>
       <c r="H18">
-        <v>0.9722129579743594</v>
+        <v>0.9631878502476914</v>
       </c>
       <c r="I18">
-        <v>1.190748565687443</v>
+        <v>1.166755286234361</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18">
         <v>54</v>
@@ -1177,40 +1177,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>4.829626852125568</v>
+      </c>
+      <c r="E19">
+        <v>0.8982593430207539</v>
+      </c>
+      <c r="F19">
+        <v>3.512635073991267</v>
+      </c>
+      <c r="G19">
+        <v>1.225319164350354</v>
+      </c>
+      <c r="H19">
+        <v>0.9635531129197623</v>
+      </c>
+      <c r="I19">
+        <v>1.209693533705888</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
         <v>21</v>
-      </c>
-      <c r="D19">
-        <v>4.866652897538191</v>
-      </c>
-      <c r="E19">
-        <v>0.8966933859606275</v>
-      </c>
-      <c r="F19">
-        <v>3.382497913026595</v>
-      </c>
-      <c r="G19">
-        <v>1.18418580713743</v>
-      </c>
-      <c r="H19">
-        <v>0.9680060207631721</v>
-      </c>
-      <c r="I19">
-        <v>1.151328728226814</v>
-      </c>
-      <c r="J19">
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>17</v>
       </c>
       <c r="M19">
         <v>57</v>
@@ -1218,72 +1218,72 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>4.8511852642219</v>
+        <v>4.81034546062627</v>
       </c>
       <c r="E20">
-        <v>0.8973490191237188</v>
+        <v>0.899070082911666</v>
       </c>
       <c r="F20">
-        <v>3.504599980586292</v>
+        <v>3.618897583306718</v>
       </c>
       <c r="G20">
-        <v>1.180422121452671</v>
+        <v>1.220427304328283</v>
       </c>
       <c r="H20">
-        <v>0.9687137954152674</v>
+        <v>0.9644227848599722</v>
       </c>
       <c r="I20">
-        <v>1.192889616591586</v>
+        <v>1.24628858775692</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>4.911641884712092</v>
+        <v>4.918483653612848</v>
       </c>
       <c r="E21">
-        <v>0.8947745549680192</v>
+        <v>0.8944811990542904</v>
       </c>
       <c r="F21">
-        <v>3.439302368472138</v>
+        <v>3.482447514106248</v>
       </c>
       <c r="G21">
-        <v>1.195132821689417</v>
+        <v>1.247862922921955</v>
       </c>
       <c r="H21">
-        <v>0.9659345881165691</v>
+        <v>0.9595003386199675</v>
       </c>
       <c r="I21">
-        <v>1.170663729497285</v>
+        <v>1.199297436410824</v>
       </c>
       <c r="J21">
         <v>21</v>
@@ -1292,51 +1292,51 @@
         <v>21</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>4.908024362121043</v>
+      </c>
+      <c r="E22">
+        <v>0.8949294991815091</v>
+      </c>
+      <c r="F22">
+        <v>3.552175236878524</v>
+      </c>
+      <c r="G22">
+        <v>1.245209307911347</v>
+      </c>
+      <c r="H22">
+        <v>0.9599812253332093</v>
+      </c>
+      <c r="I22">
+        <v>1.223310513084291</v>
+      </c>
+      <c r="J22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>4.845224709249851</v>
-      </c>
-      <c r="E22">
-        <v>0.89760111459853</v>
-      </c>
-      <c r="F22">
-        <v>3.614438652688796</v>
-      </c>
-      <c r="G22">
-        <v>1.178971760239498</v>
-      </c>
-      <c r="H22">
-        <v>0.9689859396523557</v>
-      </c>
-      <c r="I22">
-        <v>1.230276311842712</v>
-      </c>
-      <c r="J22">
-        <v>18</v>
-      </c>
       <c r="K22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1344,151 +1344,151 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23">
-        <v>4.938117526225039</v>
+        <v>4.96033639479201</v>
       </c>
       <c r="E23">
-        <v>0.8936370861568312</v>
+        <v>0.8926777812002232</v>
       </c>
       <c r="F23">
-        <v>3.481724665113571</v>
+        <v>3.481618439263281</v>
       </c>
       <c r="G23">
-        <v>1.201575047912362</v>
+        <v>1.258481334533786</v>
       </c>
       <c r="H23">
-        <v>0.9647066581742949</v>
+        <v>0.9575658317309684</v>
       </c>
       <c r="I23">
-        <v>1.185103356688936</v>
+        <v>1.199011916721085</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>5.020896808613433</v>
+        <v>4.993243510741545</v>
       </c>
       <c r="E24">
-        <v>0.8900412044411752</v>
+        <v>0.8912490961132601</v>
       </c>
       <c r="F24">
-        <v>3.590231023102308</v>
+        <v>3.488127222399657</v>
       </c>
       <c r="G24">
-        <v>1.221717444214951</v>
+        <v>1.266830161689805</v>
       </c>
       <c r="H24">
-        <v>0.9608248015606452</v>
+        <v>0.9560332966411624</v>
       </c>
       <c r="I24">
-        <v>1.222036561190433</v>
+        <v>1.201253434187748</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25">
-        <v>4.974427959947557</v>
+        <v>4.955728155985039</v>
       </c>
       <c r="E25">
-        <v>0.8920671426950547</v>
+        <v>0.8928770969900318</v>
       </c>
       <c r="F25">
-        <v>3.744296689963112</v>
+        <v>3.660312094112636</v>
       </c>
       <c r="G25">
-        <v>1.210410340087599</v>
+        <v>1.257312183479891</v>
       </c>
       <c r="H25">
-        <v>0.9630118595429552</v>
+        <v>0.9577796356298272</v>
       </c>
       <c r="I25">
-        <v>1.274477163624256</v>
+        <v>1.260551061617203</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
       <c r="D26">
-        <v>5.072562325942697</v>
+        <v>5.14440239663218</v>
       </c>
       <c r="E26">
-        <v>0.8877665878941858</v>
+        <v>0.8845650693067648</v>
       </c>
       <c r="F26">
-        <v>3.573656911279362</v>
+        <v>3.533489300542952</v>
       </c>
       <c r="G26">
-        <v>1.234289035743634</v>
+        <v>1.305180511605995</v>
       </c>
       <c r="H26">
-        <v>0.9583692882861111</v>
+        <v>0.9488634131478506</v>
       </c>
       <c r="I26">
-        <v>1.21639509397382</v>
+        <v>1.216875385073484</v>
       </c>
       <c r="J26">
         <v>26</v>
@@ -1505,72 +1505,72 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27">
-        <v>5.015742832104184</v>
+        <v>5.075063041289106</v>
       </c>
       <c r="E27">
-        <v>0.8902668351194349</v>
+        <v>0.8876559010341638</v>
       </c>
       <c r="F27">
-        <v>3.645204499126383</v>
+        <v>3.790595922495474</v>
       </c>
       <c r="G27">
-        <v>1.22046334494774</v>
+        <v>1.287588502213349</v>
       </c>
       <c r="H27">
-        <v>0.9610683762969419</v>
+        <v>0.9521789150188705</v>
       </c>
       <c r="I27">
-        <v>1.240748336885328</v>
+        <v>1.3054186614166</v>
       </c>
       <c r="J27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>5.216332065517791</v>
+        <v>5.146582646775356</v>
       </c>
       <c r="E28">
-        <v>0.8813144509236408</v>
+        <v>0.8844672035737189</v>
       </c>
       <c r="F28">
-        <v>3.597404072024848</v>
+        <v>3.716843819865854</v>
       </c>
       <c r="G28">
-        <v>1.269272028918839</v>
+        <v>1.305733660403057</v>
       </c>
       <c r="H28">
-        <v>0.9514040228653282</v>
+        <v>0.948758433631125</v>
       </c>
       <c r="I28">
-        <v>1.224478111046736</v>
+        <v>1.280019654753807</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1579,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.611369745017197</v>
+        <v>5.690940617638093</v>
       </c>
       <c r="E29">
-        <v>0.8626574346104094</v>
+        <v>0.858734701759405</v>
       </c>
       <c r="F29">
-        <v>4.175264608813819</v>
+        <v>4.188224528904501</v>
       </c>
       <c r="G29">
-        <v>1.36539518033248</v>
+        <v>1.443842105296978</v>
       </c>
       <c r="H29">
-        <v>0.9312632429694926</v>
+        <v>0.9211554563628744</v>
       </c>
       <c r="I29">
-        <v>1.421169270663271</v>
+        <v>1.442355389501745</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.629956733617683</v>
+        <v>6.652112275273113</v>
       </c>
       <c r="E30">
-        <v>0.8082705743555374</v>
+        <v>0.8069870163871435</v>
       </c>
       <c r="F30">
-        <v>4.351499174917489</v>
+        <v>4.3368568614926</v>
       </c>
       <c r="G30">
-        <v>1.613244427162002</v>
+        <v>1.687699879073486</v>
       </c>
       <c r="H30">
-        <v>0.8725510800368744</v>
+        <v>0.8656462721676337</v>
       </c>
       <c r="I30">
-        <v>1.481155684277992</v>
+        <v>1.493541911256522</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>12.52814161488502</v>
+        <v>12.53784646084473</v>
       </c>
       <c r="E31">
-        <v>0.3153940165441962</v>
+        <v>0.3143329543082289</v>
       </c>
       <c r="F31">
-        <v>9.671501929583707</v>
+        <v>9.669347373423969</v>
       </c>
       <c r="G31">
-        <v>3.048429341993816</v>
+        <v>3.180962840098911</v>
       </c>
       <c r="H31">
-        <v>0.3404768137108428</v>
+        <v>0.3371815711912518</v>
       </c>
       <c r="I31">
-        <v>3.291968924429382</v>
+        <v>3.329963616031487</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1719,22 +1719,22 @@
         <v>14</v>
       </c>
       <c r="D32">
-        <v>12.5858601251804</v>
+        <v>12.59338552362209</v>
       </c>
       <c r="E32">
-        <v>0.3090713771015164</v>
+        <v>0.3082448833077823</v>
       </c>
       <c r="F32">
-        <v>9.808910877915514</v>
+        <v>9.828979075603403</v>
       </c>
       <c r="G32">
-        <v>3.062473787352859</v>
+        <v>3.195053592878539</v>
       </c>
       <c r="H32">
-        <v>0.3336513445555507</v>
+        <v>0.330650963065953</v>
       </c>
       <c r="I32">
-        <v>3.338739942120355</v>
+        <v>3.384938139098441</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1760,22 +1760,22 @@
         <v>17</v>
       </c>
       <c r="D33">
-        <v>12.71646996146258</v>
+        <v>12.67555853972324</v>
       </c>
       <c r="E33">
-        <v>0.2946567376185619</v>
+        <v>0.2991878971387657</v>
       </c>
       <c r="F33">
-        <v>9.909970389938143</v>
+        <v>9.862035772839945</v>
       </c>
       <c r="G33">
-        <v>3.094254626803346</v>
+        <v>3.215901615821946</v>
       </c>
       <c r="H33">
-        <v>0.3180903311421617</v>
+        <v>0.32093563164788</v>
       </c>
       <c r="I33">
-        <v>3.373138402206358</v>
+        <v>3.396322319934306</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1784,10 +1784,10 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1798,25 +1798,25 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>12.72181853119443</v>
+        <v>12.7136063369744</v>
       </c>
       <c r="E34">
-        <v>0.2940632755946546</v>
+        <v>0.2949743746390491</v>
       </c>
       <c r="F34">
-        <v>9.889664680228515</v>
+        <v>9.897731912822605</v>
       </c>
       <c r="G34">
-        <v>3.095556075765967</v>
+        <v>3.225554679414766</v>
       </c>
       <c r="H34">
-        <v>0.3174496720035631</v>
+        <v>0.3164158314893799</v>
       </c>
       <c r="I34">
-        <v>3.366226780222589</v>
+        <v>3.408615481280616</v>
       </c>
       <c r="J34">
         <v>33</v>
@@ -1833,113 +1833,113 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>12.735775144051</v>
+        <v>12.73736371395927</v>
       </c>
       <c r="E35">
-        <v>0.2925135144611883</v>
+        <v>0.2923370098006014</v>
       </c>
       <c r="F35">
-        <v>9.883422261280742</v>
+        <v>9.863540049580983</v>
       </c>
       <c r="G35">
-        <v>3.098952090071574</v>
+        <v>3.231582136650193</v>
       </c>
       <c r="H35">
-        <v>0.3157766607698146</v>
+        <v>0.3135867586612081</v>
       </c>
       <c r="I35">
-        <v>3.364101996570685</v>
+        <v>3.396840368011663</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35">
         <v>33</v>
       </c>
       <c r="M35">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>12.73752681368678</v>
+        <v>12.71623099057969</v>
       </c>
       <c r="E36">
-        <v>0.2923188866814965</v>
+        <v>0.2946832473211581</v>
       </c>
       <c r="F36">
-        <v>9.862696052084191</v>
+        <v>9.972011663700922</v>
       </c>
       <c r="G36">
-        <v>3.099378317781901</v>
+        <v>3.226220577311398</v>
       </c>
       <c r="H36">
-        <v>0.3155665545445439</v>
+        <v>0.3161035423541881</v>
       </c>
       <c r="I36">
-        <v>3.357047245706441</v>
+        <v>3.434196201289964</v>
       </c>
       <c r="J36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>12.74617945882424</v>
+        <v>12.75771756584011</v>
       </c>
       <c r="E37">
-        <v>0.2913570997620341</v>
+        <v>0.2900735624686693</v>
       </c>
       <c r="F37">
-        <v>10.02205322891532</v>
+        <v>9.908778405651613</v>
       </c>
       <c r="G37">
-        <v>3.10148373597829</v>
+        <v>3.23674608938227</v>
       </c>
       <c r="H37">
-        <v>0.3145282782024768</v>
+        <v>0.3111587831109859</v>
       </c>
       <c r="I37">
-        <v>3.411288963056276</v>
+        <v>3.412419711057949</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>13.05596551738194</v>
+        <v>13.0619812980308</v>
       </c>
       <c r="E38">
-        <v>0.2564924695732697</v>
+        <v>0.2558071416798965</v>
       </c>
       <c r="F38">
-        <v>10.08162395789999</v>
+        <v>10.10571896168879</v>
       </c>
       <c r="G38">
-        <v>3.176862905505387</v>
+        <v>3.313940496628438</v>
       </c>
       <c r="H38">
-        <v>0.2768909180269583</v>
+        <v>0.2744015629649577</v>
       </c>
       <c r="I38">
-        <v>3.431565543679527</v>
+        <v>3.48024278750748</v>
       </c>
       <c r="J38">
         <v>37</v>
